--- a/IO_M2.1_new/RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/RunControl_M2.1_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="512">
   <si>
     <t xml:space="preserve">Sheet #</t>
   </si>
@@ -520,6 +520,18 @@
   </si>
   <si>
     <t xml:space="preserve">WA-PERS2-119.yos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSERS.fillin.yos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSERS.fillin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSERS.yos</t>
   </si>
   <si>
     <t xml:space="preserve">Demographics</t>
@@ -1933,7 +1945,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2063,6 +2075,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2338,9 +2354,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>609120</xdr:colOff>
+      <xdr:colOff>608760</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2349,8 +2365,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8042040" y="3313440"/>
-          <a:ext cx="2472840" cy="1533960"/>
+          <a:off x="8070840" y="3313440"/>
+          <a:ext cx="2491200" cy="1533600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2777,7 +2793,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2842,36 +2858,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="I1" s="1"/>
       <c r="N1" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="0"/>
@@ -2880,45 +2896,47 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="B2" s="49" t="n">
+        <v>486</v>
+      </c>
+      <c r="B2" s="50" t="n">
         <v>0.46</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="I2" s="0"/>
-      <c r="J2" s="49" t="n">
+      <c r="J2" s="50" t="n">
         <v>0.46</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="O2" s="49" t="n">
+        <v>486</v>
+      </c>
+      <c r="O2" s="50" t="n">
         <v>0.46</v>
       </c>
+      <c r="P2" s="0"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="B3" s="50" t="n">
+        <v>488</v>
+      </c>
+      <c r="B3" s="51" t="n">
         <v>0.027</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="J3" s="34"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="35"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="34"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="35"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
@@ -2933,50 +2951,50 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="I5" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="N5" s="0" t="s">
+      <c r="P5" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>486</v>
-      </c>
       <c r="Q5" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="n">
+      <c r="A6" s="53" t="n">
         <v>0.045</v>
       </c>
       <c r="B6" s="5" t="n">
@@ -2987,54 +3005,54 @@
         <f aca="false">B6/$B$2</f>
         <v>0.0391304347826087</v>
       </c>
-      <c r="D6" s="37" t="n">
+      <c r="D6" s="38" t="n">
         <f aca="false">A6-(C6^2)/2</f>
         <v>0.044234404536862</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="G6" s="53" t="n">
+      <c r="E6" s="38"/>
+      <c r="G6" s="54" t="n">
         <f aca="false">J6/K6</f>
         <v>0.459999999999999</v>
       </c>
-      <c r="H6" s="50" t="n">
+      <c r="H6" s="51" t="n">
         <v>0.067</v>
       </c>
-      <c r="I6" s="34" t="n">
+      <c r="I6" s="35" t="n">
         <f aca="false">L6 + K6^2/2</f>
         <v>0.075157231635037</v>
       </c>
-      <c r="J6" s="36" t="n">
+      <c r="J6" s="37" t="n">
         <f aca="false">I6-H6</f>
         <v>0.00815723163503697</v>
       </c>
-      <c r="K6" s="34" t="n">
+      <c r="K6" s="35" t="n">
         <f aca="false">(2*J$2-(4*J$2^2-8*(L6-H6))^0.5)/2</f>
         <v>0.0177331122500804</v>
       </c>
-      <c r="L6" s="54" t="n">
+      <c r="L6" s="55" t="n">
         <v>0.075</v>
       </c>
-      <c r="N6" s="50" t="n">
+      <c r="N6" s="51" t="n">
         <v>0.067</v>
       </c>
-      <c r="O6" s="37" t="n">
+      <c r="O6" s="38" t="n">
         <f aca="false">N6+P6</f>
         <v>0.1222</v>
       </c>
-      <c r="P6" s="54" t="n">
+      <c r="P6" s="55" t="n">
         <v>0.0552</v>
       </c>
-      <c r="Q6" s="34" t="n">
+      <c r="Q6" s="35" t="n">
         <f aca="false">P6/$O$2</f>
         <v>0.12</v>
       </c>
-      <c r="R6" s="36" t="n">
+      <c r="R6" s="37" t="n">
         <f aca="false">O6 - Q6^2/2</f>
         <v>0.115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="52" t="n">
+      <c r="A7" s="53" t="n">
         <v>0.06</v>
       </c>
       <c r="B7" s="5" t="n">
@@ -3045,54 +3063,54 @@
         <f aca="false">B7/$B$2</f>
         <v>0.0717391304347826</v>
       </c>
-      <c r="D7" s="37" t="n">
+      <c r="D7" s="38" t="n">
         <f aca="false">A7-(C7^2)/2</f>
         <v>0.0574267485822306</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="G7" s="53" t="n">
+      <c r="E7" s="38"/>
+      <c r="G7" s="54" t="n">
         <f aca="false">J7/K7</f>
         <v>0.46</v>
       </c>
-      <c r="H7" s="50" t="n">
+      <c r="H7" s="51" t="n">
         <v>0.057</v>
       </c>
-      <c r="I7" s="34" t="n">
+      <c r="I7" s="35" t="n">
         <f aca="false">L7 + K7^2/2</f>
         <v>0.0758385930742359</v>
       </c>
-      <c r="J7" s="36" t="n">
+      <c r="J7" s="37" t="n">
         <f aca="false">I7-H7</f>
         <v>0.0188385930742359</v>
       </c>
-      <c r="K7" s="34" t="n">
+      <c r="K7" s="35" t="n">
         <f aca="false">(2*J$2-(4*J$2^2-8*(L7-H7))^0.5)/2</f>
         <v>0.0409534632048607</v>
       </c>
-      <c r="L7" s="54" t="n">
+      <c r="L7" s="55" t="n">
         <v>0.075</v>
       </c>
-      <c r="N7" s="50" t="n">
+      <c r="N7" s="51" t="n">
         <v>0.057</v>
       </c>
-      <c r="O7" s="37" t="n">
+      <c r="O7" s="38" t="n">
         <f aca="false">N7+P7</f>
         <v>0.1122</v>
       </c>
-      <c r="P7" s="54" t="n">
+      <c r="P7" s="55" t="n">
         <v>0.0552</v>
       </c>
-      <c r="Q7" s="34" t="n">
+      <c r="Q7" s="35" t="n">
         <f aca="false">P7/$O$2</f>
         <v>0.12</v>
       </c>
-      <c r="R7" s="36" t="n">
+      <c r="R7" s="37" t="n">
         <f aca="false">O7 - Q7^2/2</f>
         <v>0.105</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="52" t="n">
+      <c r="A8" s="53" t="n">
         <v>0.0822</v>
       </c>
       <c r="B8" s="5" t="n">
@@ -3103,54 +3121,54 @@
         <f aca="false">B8/$B$2</f>
         <v>0.12</v>
       </c>
-      <c r="D8" s="37" t="n">
+      <c r="D8" s="38" t="n">
         <f aca="false">A8-(C8^2)/2</f>
         <v>0.075</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="G8" s="53" t="n">
+      <c r="E8" s="38"/>
+      <c r="G8" s="54" t="n">
         <f aca="false">J8/K8</f>
         <v>0.46</v>
       </c>
-      <c r="H8" s="50" t="n">
+      <c r="H8" s="51" t="n">
         <v>0.047</v>
       </c>
-      <c r="I8" s="34" t="n">
+      <c r="I8" s="35" t="n">
         <f aca="false">L8 + K8^2/2</f>
         <v>0.0771476371054926</v>
       </c>
-      <c r="J8" s="36" t="n">
+      <c r="J8" s="37" t="n">
         <f aca="false">I8-H8</f>
         <v>0.0301476371054926</v>
       </c>
-      <c r="K8" s="34" t="n">
+      <c r="K8" s="35" t="n">
         <f aca="false">(2*J$2-(4*J$2^2-8*(L8-H8))^0.5)/2</f>
         <v>0.0655383415336796</v>
       </c>
-      <c r="L8" s="54" t="n">
+      <c r="L8" s="55" t="n">
         <v>0.075</v>
       </c>
-      <c r="N8" s="50" t="n">
+      <c r="N8" s="51" t="n">
         <v>0.047</v>
       </c>
-      <c r="O8" s="37" t="n">
+      <c r="O8" s="38" t="n">
         <f aca="false">N8+P8</f>
         <v>0.1022</v>
       </c>
-      <c r="P8" s="54" t="n">
+      <c r="P8" s="55" t="n">
         <v>0.0552</v>
       </c>
-      <c r="Q8" s="34" t="n">
+      <c r="Q8" s="35" t="n">
         <f aca="false">P8/$O$2</f>
         <v>0.12</v>
       </c>
-      <c r="R8" s="36" t="n">
+      <c r="R8" s="37" t="n">
         <f aca="false">O8 - Q8^2/2</f>
         <v>0.095</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="52" t="n">
+      <c r="A9" s="53" t="n">
         <v>0.09</v>
       </c>
       <c r="B9" s="5" t="n">
@@ -3161,54 +3179,54 @@
         <f aca="false">B9/$B$2</f>
         <v>0.13695652173913</v>
       </c>
-      <c r="D9" s="37" t="n">
+      <c r="D9" s="38" t="n">
         <f aca="false">A9-(C9^2)/2</f>
         <v>0.0806214555765595</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="G9" s="53" t="n">
+      <c r="E9" s="38"/>
+      <c r="G9" s="54" t="n">
         <f aca="false">J9/K9</f>
         <v>0.46</v>
       </c>
-      <c r="H9" s="50" t="n">
+      <c r="H9" s="51" t="n">
         <v>0.037</v>
       </c>
-      <c r="I9" s="34" t="n">
+      <c r="I9" s="35" t="n">
         <f aca="false">L9 + K9^2/2</f>
         <v>0.0792100357163979</v>
       </c>
-      <c r="J9" s="36" t="n">
+      <c r="J9" s="37" t="n">
         <f aca="false">I9-H9</f>
         <v>0.0422100357163979</v>
       </c>
-      <c r="K9" s="34" t="n">
+      <c r="K9" s="35" t="n">
         <f aca="false">(2*J$2-(4*J$2^2-8*(L9-H9))^0.5)/2</f>
         <v>0.0917609472095606</v>
       </c>
-      <c r="L9" s="54" t="n">
+      <c r="L9" s="55" t="n">
         <v>0.075</v>
       </c>
-      <c r="N9" s="50" t="n">
+      <c r="N9" s="51" t="n">
         <v>0.037</v>
       </c>
-      <c r="O9" s="37" t="n">
+      <c r="O9" s="38" t="n">
         <f aca="false">N9+P9</f>
         <v>0.0922</v>
       </c>
-      <c r="P9" s="54" t="n">
+      <c r="P9" s="55" t="n">
         <v>0.0552</v>
       </c>
-      <c r="Q9" s="34" t="n">
+      <c r="Q9" s="35" t="n">
         <f aca="false">P9/$O$2</f>
         <v>0.12</v>
       </c>
-      <c r="R9" s="36" t="n">
+      <c r="R9" s="37" t="n">
         <f aca="false">O9 - Q9^2/2</f>
         <v>0.085</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="52" t="n">
+      <c r="A10" s="53" t="n">
         <v>0.105</v>
       </c>
       <c r="B10" s="5" t="n">
@@ -3219,177 +3237,177 @@
         <f aca="false">B10/$B$2</f>
         <v>0.169565217391304</v>
       </c>
-      <c r="D10" s="37" t="n">
+      <c r="D10" s="38" t="n">
         <f aca="false">A10-(C10^2)/2</f>
         <v>0.0906238185255199</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="G10" s="53" t="n">
+      <c r="E10" s="38"/>
+      <c r="G10" s="54" t="n">
         <f aca="false">J10/K10</f>
         <v>0.46</v>
       </c>
-      <c r="H10" s="50" t="n">
+      <c r="H10" s="51" t="n">
         <v>0.032</v>
       </c>
-      <c r="I10" s="34" t="n">
+      <c r="I10" s="35" t="n">
         <f aca="false">L10 + K10^2/2</f>
         <v>0.080575584650642</v>
       </c>
-      <c r="J10" s="36" t="n">
+      <c r="J10" s="37" t="n">
         <f aca="false">I10-H10</f>
         <v>0.048575584650642</v>
       </c>
-      <c r="K10" s="34" t="n">
+      <c r="K10" s="35" t="n">
         <f aca="false">(2*J$2-(4*J$2^2-8*(L10-H10))^0.5)/2</f>
         <v>0.105599097066613</v>
       </c>
-      <c r="L10" s="54" t="n">
+      <c r="L10" s="55" t="n">
         <v>0.075</v>
       </c>
-      <c r="N10" s="50" t="n">
+      <c r="N10" s="51" t="n">
         <v>0.032</v>
       </c>
-      <c r="O10" s="37" t="n">
+      <c r="O10" s="38" t="n">
         <f aca="false">N10+P10</f>
         <v>0.0872</v>
       </c>
-      <c r="P10" s="54" t="n">
+      <c r="P10" s="55" t="n">
         <v>0.0552</v>
       </c>
-      <c r="Q10" s="34" t="n">
+      <c r="Q10" s="35" t="n">
         <f aca="false">P10/$O$2</f>
         <v>0.12</v>
       </c>
-      <c r="R10" s="36" t="n">
+      <c r="R10" s="37" t="n">
         <f aca="false">O10 - Q10^2/2</f>
         <v>0.08</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0"/>
-      <c r="G11" s="53" t="n">
+      <c r="G11" s="54" t="n">
         <f aca="false">J11/K11</f>
         <v>0.46</v>
       </c>
-      <c r="H11" s="50" t="n">
+      <c r="H11" s="51" t="n">
         <v>0.027</v>
       </c>
-      <c r="I11" s="34" t="n">
+      <c r="I11" s="35" t="n">
         <f aca="false">L11 + K11^2/2</f>
         <v>0.0822</v>
       </c>
-      <c r="J11" s="36" t="n">
+      <c r="J11" s="37" t="n">
         <f aca="false">I11-H11</f>
         <v>0.0552</v>
       </c>
-      <c r="K11" s="34" t="n">
+      <c r="K11" s="35" t="n">
         <f aca="false">(2*J$2-(4*J$2^2-8*(L11-H11))^0.5)/2</f>
         <v>0.12</v>
       </c>
-      <c r="L11" s="54" t="n">
+      <c r="L11" s="55" t="n">
         <v>0.075</v>
       </c>
-      <c r="N11" s="50" t="n">
+      <c r="N11" s="51" t="n">
         <v>0.027</v>
       </c>
-      <c r="O11" s="37" t="n">
+      <c r="O11" s="38" t="n">
         <f aca="false">N11+P11</f>
         <v>0.0822</v>
       </c>
-      <c r="P11" s="54" t="n">
+      <c r="P11" s="55" t="n">
         <v>0.0552</v>
       </c>
-      <c r="Q11" s="34" t="n">
+      <c r="Q11" s="35" t="n">
         <f aca="false">P11/$O$2</f>
         <v>0.12</v>
       </c>
-      <c r="R11" s="36" t="n">
+      <c r="R11" s="37" t="n">
         <f aca="false">O11 - Q11^2/2</f>
         <v>0.075</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0"/>
-      <c r="G12" s="53" t="n">
+      <c r="G12" s="54" t="n">
         <f aca="false">J12/K12</f>
         <v>0.46</v>
       </c>
-      <c r="H12" s="50" t="n">
+      <c r="H12" s="51" t="n">
         <v>0.022</v>
       </c>
-      <c r="I12" s="34" t="n">
+      <c r="I12" s="35" t="n">
         <f aca="false">L12 + K12^2/2</f>
         <v>0.0841176933546983</v>
       </c>
-      <c r="J12" s="36" t="n">
+      <c r="J12" s="37" t="n">
         <f aca="false">I12-H12</f>
         <v>0.0621176933546983</v>
       </c>
-      <c r="K12" s="34" t="n">
+      <c r="K12" s="35" t="n">
         <f aca="false">(2*J$2-(4*J$2^2-8*(L12-H12))^0.5)/2</f>
         <v>0.135038463814562</v>
       </c>
-      <c r="L12" s="54" t="n">
+      <c r="L12" s="55" t="n">
         <v>0.075</v>
       </c>
-      <c r="N12" s="50" t="n">
+      <c r="N12" s="51" t="n">
         <v>0.022</v>
       </c>
-      <c r="O12" s="37" t="n">
+      <c r="O12" s="38" t="n">
         <f aca="false">N12+P12</f>
         <v>0.0772</v>
       </c>
-      <c r="P12" s="54" t="n">
+      <c r="P12" s="55" t="n">
         <v>0.0552</v>
       </c>
-      <c r="Q12" s="34" t="n">
+      <c r="Q12" s="35" t="n">
         <f aca="false">P12/$O$2</f>
         <v>0.12</v>
       </c>
-      <c r="R12" s="36" t="n">
+      <c r="R12" s="37" t="n">
         <f aca="false">O12 - Q12^2/2</f>
         <v>0.07</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0"/>
-      <c r="G13" s="53" t="n">
+      <c r="G13" s="54" t="n">
         <f aca="false">J13/K13</f>
         <v>0.46</v>
       </c>
-      <c r="H13" s="50" t="n">
+      <c r="H13" s="51" t="n">
         <v>0.017</v>
       </c>
-      <c r="I13" s="34" t="n">
+      <c r="I13" s="35" t="n">
         <f aca="false">L13 + K13^2/2</f>
         <v>0.0863714515295892</v>
       </c>
-      <c r="J13" s="36" t="n">
+      <c r="J13" s="37" t="n">
         <f aca="false">I13-H13</f>
         <v>0.0693714515295892</v>
       </c>
-      <c r="K13" s="34" t="n">
+      <c r="K13" s="35" t="n">
         <f aca="false">(2*J$2-(4*J$2^2-8*(L13-H13))^0.5)/2</f>
         <v>0.150807503325194</v>
       </c>
-      <c r="L13" s="54" t="n">
+      <c r="L13" s="55" t="n">
         <v>0.075</v>
       </c>
-      <c r="N13" s="50" t="n">
+      <c r="N13" s="51" t="n">
         <v>0.017</v>
       </c>
-      <c r="O13" s="37" t="n">
+      <c r="O13" s="38" t="n">
         <f aca="false">N13+P13</f>
         <v>0.0722</v>
       </c>
-      <c r="P13" s="54" t="n">
+      <c r="P13" s="55" t="n">
         <v>0.0552</v>
       </c>
-      <c r="Q13" s="34" t="n">
+      <c r="Q13" s="35" t="n">
         <f aca="false">P13/$O$2</f>
         <v>0.12</v>
       </c>
-      <c r="R13" s="36" t="n">
+      <c r="R13" s="37" t="n">
         <f aca="false">O13 - Q13^2/2</f>
         <v>0.065</v>
       </c>
@@ -3397,325 +3415,325 @@
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0"/>
       <c r="I14" s="0"/>
-      <c r="N14" s="37"/>
+      <c r="N14" s="38"/>
       <c r="P14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0"/>
       <c r="I15" s="0"/>
-      <c r="N15" s="37"/>
+      <c r="N15" s="38"/>
       <c r="P15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0"/>
       <c r="I16" s="0"/>
-      <c r="N16" s="37"/>
+      <c r="N16" s="38"/>
       <c r="P16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0"/>
       <c r="I17" s="0"/>
-      <c r="N17" s="37"/>
+      <c r="N17" s="38"/>
       <c r="P17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0"/>
       <c r="I18" s="0"/>
-      <c r="N18" s="37"/>
+      <c r="N18" s="38"/>
       <c r="P18" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
       <c r="I20" s="0"/>
       <c r="P20" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="58"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="58"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="58"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="58"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="58" t="n">
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="59" t="n">
         <v>6</v>
       </c>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="57"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="58"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="P30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0"/>
-      <c r="G31" s="53" t="n">
+      <c r="G31" s="54" t="n">
         <f aca="false">J31/K31</f>
         <v>0.36506976744186</v>
       </c>
-      <c r="H31" s="50" t="n">
+      <c r="H31" s="51" t="n">
         <v>0.027</v>
       </c>
-      <c r="I31" s="34" t="n">
+      <c r="I31" s="35" t="n">
         <f aca="false">L31 + K31^2/2</f>
         <v>0.089792</v>
       </c>
-      <c r="J31" s="36" t="n">
+      <c r="J31" s="37" t="n">
         <f aca="false">I31-H31</f>
         <v>0.062792</v>
       </c>
-      <c r="K31" s="34" t="n">
+      <c r="K31" s="35" t="n">
         <v>0.172</v>
       </c>
-      <c r="L31" s="54" t="n">
+      <c r="L31" s="55" t="n">
         <v>0.075</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="P31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0"/>
-      <c r="G32" s="53" t="n">
+      <c r="G32" s="54" t="n">
         <f aca="false">J32/K32</f>
         <v>0.423209302325581</v>
       </c>
-      <c r="H32" s="50" t="n">
+      <c r="H32" s="51" t="n">
         <v>0.017</v>
       </c>
-      <c r="I32" s="34" t="n">
+      <c r="I32" s="35" t="n">
         <f aca="false">L32 + K32^2/2</f>
         <v>0.089792</v>
       </c>
-      <c r="J32" s="36" t="n">
+      <c r="J32" s="37" t="n">
         <f aca="false">I32-H32</f>
         <v>0.072792</v>
       </c>
-      <c r="K32" s="34" t="n">
+      <c r="K32" s="35" t="n">
         <v>0.172</v>
       </c>
-      <c r="L32" s="54" t="n">
+      <c r="L32" s="55" t="n">
         <v>0.075</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="P32" s="0"/>
     </row>
     <row r="33" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G33" s="53"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="55"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0"/>
-      <c r="G34" s="53" t="n">
+      <c r="G34" s="54" t="n">
         <f aca="false">J34/K34</f>
         <v>0.317084012446288</v>
       </c>
-      <c r="H34" s="50" t="n">
+      <c r="H34" s="51" t="n">
         <v>0.027</v>
       </c>
-      <c r="I34" s="34" t="n">
+      <c r="I34" s="35" t="n">
         <v>0.0698</v>
       </c>
-      <c r="J34" s="36" t="n">
+      <c r="J34" s="37" t="n">
         <f aca="false">I34-H34</f>
         <v>0.0428</v>
       </c>
-      <c r="K34" s="34" t="n">
+      <c r="K34" s="35" t="n">
         <v>0.13498</v>
       </c>
-      <c r="L34" s="54" t="n">
+      <c r="L34" s="55" t="n">
         <v>0.0606901998</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="P34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0"/>
-      <c r="G35" s="53" t="n">
+      <c r="G35" s="54" t="n">
         <f aca="false">J35/K35</f>
         <v>0.133333333333333</v>
       </c>
-      <c r="H35" s="50" t="n">
+      <c r="H35" s="51" t="n">
         <v>0.027</v>
       </c>
-      <c r="I35" s="34" t="n">
+      <c r="I35" s="35" t="n">
         <v>0.035</v>
       </c>
-      <c r="J35" s="36" t="n">
+      <c r="J35" s="37" t="n">
         <f aca="false">I35-H35</f>
         <v>0.008</v>
       </c>
-      <c r="K35" s="34" t="n">
+      <c r="K35" s="35" t="n">
         <v>0.06</v>
       </c>
-      <c r="L35" s="54" t="n">
+      <c r="L35" s="55" t="n">
         <v>0.0332</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="P35" s="0"/>
       <c r="R35" s="0" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="T35" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0"/>
-      <c r="G36" s="53" t="n">
+      <c r="G36" s="54" t="n">
         <f aca="false">J36/K36</f>
         <v>0.293478260869565</v>
       </c>
-      <c r="H36" s="50" t="n">
+      <c r="H36" s="51" t="n">
         <v>0.027</v>
       </c>
-      <c r="I36" s="34" t="n">
+      <c r="I36" s="35" t="n">
         <v>0.081</v>
       </c>
-      <c r="J36" s="36" t="n">
+      <c r="J36" s="37" t="n">
         <f aca="false">I36-H36</f>
         <v>0.054</v>
       </c>
-      <c r="K36" s="34" t="n">
+      <c r="K36" s="35" t="n">
         <v>0.184</v>
       </c>
-      <c r="L36" s="54" t="n">
+      <c r="L36" s="55" t="n">
         <v>0.08083072</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="P36" s="0"/>
       <c r="R36" s="0" t="n">
@@ -3730,12 +3748,12 @@
       </c>
     </row>
     <row r="37" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G37" s="53"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="55"/>
       <c r="R37" s="2" t="n">
         <v>0.035</v>
       </c>
@@ -3748,28 +3766,28 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G38" s="53" t="n">
+      <c r="G38" s="54" t="n">
         <f aca="false">J38/K38</f>
         <v>0.391169062083272</v>
       </c>
-      <c r="H38" s="50" t="n">
+      <c r="H38" s="51" t="n">
         <v>0.017</v>
       </c>
-      <c r="I38" s="34" t="n">
+      <c r="I38" s="35" t="n">
         <v>0.0698</v>
       </c>
-      <c r="J38" s="36" t="n">
+      <c r="J38" s="37" t="n">
         <f aca="false">I38-H38</f>
         <v>0.0528</v>
       </c>
-      <c r="K38" s="34" t="n">
+      <c r="K38" s="35" t="n">
         <v>0.13498</v>
       </c>
-      <c r="L38" s="54" t="n">
+      <c r="L38" s="55" t="n">
         <v>0.0606901998</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="R38" s="0" t="n">
         <v>0.081</v>
@@ -3783,53 +3801,53 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G39" s="53" t="n">
+      <c r="G39" s="54" t="n">
         <f aca="false">J39/K39</f>
         <v>0.3</v>
       </c>
-      <c r="H39" s="50" t="n">
+      <c r="H39" s="51" t="n">
         <v>0.017</v>
       </c>
-      <c r="I39" s="34" t="n">
+      <c r="I39" s="35" t="n">
         <v>0.035</v>
       </c>
-      <c r="J39" s="36" t="n">
+      <c r="J39" s="37" t="n">
         <f aca="false">I39-H39</f>
         <v>0.018</v>
       </c>
-      <c r="K39" s="34" t="n">
+      <c r="K39" s="35" t="n">
         <v>0.06</v>
       </c>
-      <c r="L39" s="54" t="n">
+      <c r="L39" s="55" t="n">
         <v>0.0332</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G40" s="53" t="n">
+      <c r="G40" s="54" t="n">
         <f aca="false">J40/K40</f>
         <v>0.347826086956522</v>
       </c>
-      <c r="H40" s="50" t="n">
+      <c r="H40" s="51" t="n">
         <v>0.017</v>
       </c>
-      <c r="I40" s="34" t="n">
+      <c r="I40" s="35" t="n">
         <v>0.081</v>
       </c>
-      <c r="J40" s="36" t="n">
+      <c r="J40" s="37" t="n">
         <f aca="false">I40-H40</f>
         <v>0.064</v>
       </c>
-      <c r="K40" s="34" t="n">
+      <c r="K40" s="35" t="n">
         <v>0.184</v>
       </c>
-      <c r="L40" s="54" t="n">
+      <c r="L40" s="55" t="n">
         <v>0.08083072</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -3858,12 +3876,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="34" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="34" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="34" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="34" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="35" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="35" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="35" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="35" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3875,486 +3893,486 @@
       <c r="J1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
     </row>
     <row r="5" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="E5" s="64" t="s">
-        <v>499</v>
-      </c>
-      <c r="F5" s="65" t="s">
-        <v>500</v>
-      </c>
-      <c r="G5" s="65" t="s">
-        <v>486</v>
-      </c>
-      <c r="H5" s="65" t="s">
-        <v>501</v>
-      </c>
-      <c r="I5" s="65" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="64" t="s">
         <v>502</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="E5" s="65" t="s">
         <v>503</v>
       </c>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
+      <c r="F5" s="66" t="s">
+        <v>504</v>
+      </c>
+      <c r="G5" s="66" t="s">
+        <v>490</v>
+      </c>
+      <c r="H5" s="66" t="s">
+        <v>505</v>
+      </c>
+      <c r="I5" s="66" t="s">
+        <v>506</v>
+      </c>
+      <c r="J5" s="66" t="s">
+        <v>507</v>
+      </c>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
     </row>
     <row r="6" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="66" t="s">
-        <v>504</v>
-      </c>
-      <c r="E6" s="67" t="n">
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="67" t="s">
+        <v>508</v>
+      </c>
+      <c r="E6" s="68" t="n">
         <v>0.459999999999999</v>
       </c>
-      <c r="F6" s="68" t="n">
+      <c r="F6" s="69" t="n">
         <v>0.067</v>
       </c>
-      <c r="G6" s="68" t="n">
+      <c r="G6" s="69" t="n">
         <v>0.00815723163503697</v>
       </c>
-      <c r="H6" s="68" t="n">
+      <c r="H6" s="69" t="n">
         <v>0.075157231635037</v>
       </c>
-      <c r="I6" s="68" t="n">
+      <c r="I6" s="69" t="n">
         <v>0.0177331122500804</v>
       </c>
-      <c r="J6" s="68" t="n">
+      <c r="J6" s="69" t="n">
         <v>0.075</v>
       </c>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
     </row>
     <row r="7" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="69" t="s">
-        <v>505</v>
-      </c>
-      <c r="E7" s="70" t="n">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="70" t="s">
+        <v>509</v>
+      </c>
+      <c r="E7" s="71" t="n">
         <v>0.46</v>
       </c>
-      <c r="F7" s="71" t="n">
+      <c r="F7" s="72" t="n">
         <v>0.027</v>
       </c>
-      <c r="G7" s="71" t="n">
+      <c r="G7" s="72" t="n">
         <v>0.0552</v>
       </c>
-      <c r="H7" s="71" t="n">
+      <c r="H7" s="72" t="n">
         <v>0.0822</v>
       </c>
-      <c r="I7" s="71" t="n">
+      <c r="I7" s="72" t="n">
         <v>0.12</v>
       </c>
-      <c r="J7" s="71" t="n">
+      <c r="J7" s="72" t="n">
         <v>0.075</v>
       </c>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
     </row>
     <row r="8" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="66" t="s">
-        <v>506</v>
-      </c>
-      <c r="E8" s="67" t="n">
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="67" t="s">
+        <v>510</v>
+      </c>
+      <c r="E8" s="68" t="n">
         <v>0.46</v>
       </c>
-      <c r="F8" s="68" t="n">
+      <c r="F8" s="69" t="n">
         <v>0.027</v>
       </c>
-      <c r="G8" s="68" t="n">
+      <c r="G8" s="69" t="n">
         <v>0.00815723163503697</v>
       </c>
-      <c r="H8" s="68" t="n">
+      <c r="H8" s="69" t="n">
         <f aca="false">F8+G8</f>
         <v>0.035157231635037</v>
       </c>
-      <c r="I8" s="68" t="n">
+      <c r="I8" s="69" t="n">
         <f aca="false">G8/E8</f>
         <v>0.0177331122500804</v>
       </c>
-      <c r="J8" s="68" t="n">
+      <c r="J8" s="69" t="n">
         <f aca="false">H8-I8^2/2</f>
         <v>0.035</v>
       </c>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
     </row>
     <row r="9" s="2" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="66" t="s">
-        <v>492</v>
-      </c>
-      <c r="E10" s="72" t="n">
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="67" t="s">
+        <v>496</v>
+      </c>
+      <c r="E10" s="73" t="n">
         <v>0.36506976744186</v>
       </c>
-      <c r="F10" s="68" t="n">
+      <c r="F10" s="69" t="n">
         <v>0.027</v>
       </c>
-      <c r="G10" s="68" t="n">
+      <c r="G10" s="69" t="n">
         <v>0.062792</v>
       </c>
-      <c r="H10" s="68" t="n">
+      <c r="H10" s="69" t="n">
         <v>0.089792</v>
       </c>
-      <c r="I10" s="68" t="n">
+      <c r="I10" s="69" t="n">
         <v>0.172</v>
       </c>
-      <c r="J10" s="68" t="n">
+      <c r="J10" s="69" t="n">
         <v>0.075</v>
       </c>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
     </row>
     <row r="11" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="66" t="s">
-        <v>493</v>
-      </c>
-      <c r="E11" s="72" t="n">
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="67" t="s">
+        <v>497</v>
+      </c>
+      <c r="E11" s="73" t="n">
         <v>0.317084012446288</v>
       </c>
-      <c r="F11" s="68" t="n">
+      <c r="F11" s="69" t="n">
         <v>0.027</v>
       </c>
-      <c r="G11" s="68" t="n">
+      <c r="G11" s="69" t="n">
         <v>0.0428</v>
       </c>
-      <c r="H11" s="68" t="n">
+      <c r="H11" s="69" t="n">
         <v>0.0698</v>
       </c>
-      <c r="I11" s="68" t="n">
+      <c r="I11" s="69" t="n">
         <v>0.13498</v>
       </c>
-      <c r="J11" s="68" t="n">
+      <c r="J11" s="69" t="n">
         <v>0.0606901998</v>
       </c>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
     </row>
     <row r="12" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="66" t="s">
-        <v>494</v>
-      </c>
-      <c r="E12" s="72" t="n">
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="67" t="s">
+        <v>498</v>
+      </c>
+      <c r="E12" s="73" t="n">
         <v>0.133333333333333</v>
       </c>
-      <c r="F12" s="68" t="n">
+      <c r="F12" s="69" t="n">
         <v>0.027</v>
       </c>
-      <c r="G12" s="68" t="n">
+      <c r="G12" s="69" t="n">
         <v>0.008</v>
       </c>
-      <c r="H12" s="68" t="n">
+      <c r="H12" s="69" t="n">
         <v>0.035</v>
       </c>
-      <c r="I12" s="68" t="n">
+      <c r="I12" s="69" t="n">
         <v>0.06</v>
       </c>
-      <c r="J12" s="68" t="n">
+      <c r="J12" s="69" t="n">
         <v>0.0332</v>
       </c>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
     </row>
     <row r="13" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="73" t="s">
-        <v>497</v>
-      </c>
-      <c r="E13" s="74" t="n">
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="74" t="s">
+        <v>501</v>
+      </c>
+      <c r="E13" s="75" t="n">
         <v>0.293478260869565</v>
       </c>
-      <c r="F13" s="75" t="n">
+      <c r="F13" s="76" t="n">
         <v>0.027</v>
       </c>
-      <c r="G13" s="75" t="n">
+      <c r="G13" s="76" t="n">
         <v>0.054</v>
       </c>
-      <c r="H13" s="75" t="n">
+      <c r="H13" s="76" t="n">
         <v>0.081</v>
       </c>
-      <c r="I13" s="75" t="n">
+      <c r="I13" s="76" t="n">
         <v>0.184</v>
       </c>
-      <c r="J13" s="75" t="n">
+      <c r="J13" s="76" t="n">
         <v>0.08083072</v>
       </c>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
     </row>
     <row r="14" s="2" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="76" t="s">
-        <v>507</v>
-      </c>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="77" t="s">
+        <v>511</v>
+      </c>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
     </row>
     <row r="15" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
     </row>
     <row r="16" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
     </row>
     <row r="17" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
     </row>
     <row r="18" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
     </row>
     <row r="19" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
     </row>
     <row r="20" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
     </row>
     <row r="21" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
     </row>
     <row r="22" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
-      <c r="E24" s="53"/>
+      <c r="E24" s="54"/>
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
       <c r="H24" s="0"/>
@@ -4363,93 +4381,93 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="E25" s="53" t="n">
+        <v>496</v>
+      </c>
+      <c r="E25" s="54" t="n">
         <v>0.423209302325581</v>
       </c>
-      <c r="F25" s="34" t="n">
+      <c r="F25" s="35" t="n">
         <v>0.017</v>
       </c>
-      <c r="G25" s="34" t="n">
+      <c r="G25" s="35" t="n">
         <v>0.072792</v>
       </c>
-      <c r="H25" s="34" t="n">
+      <c r="H25" s="35" t="n">
         <v>0.089792</v>
       </c>
-      <c r="I25" s="34" t="n">
+      <c r="I25" s="35" t="n">
         <v>0.172</v>
       </c>
-      <c r="J25" s="34" t="n">
+      <c r="J25" s="35" t="n">
         <v>0.075</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="E26" s="53" t="n">
+        <v>497</v>
+      </c>
+      <c r="E26" s="54" t="n">
         <v>0.391169062083272</v>
       </c>
-      <c r="F26" s="34" t="n">
+      <c r="F26" s="35" t="n">
         <v>0.017</v>
       </c>
-      <c r="G26" s="34" t="n">
+      <c r="G26" s="35" t="n">
         <v>0.0528</v>
       </c>
-      <c r="H26" s="34" t="n">
+      <c r="H26" s="35" t="n">
         <v>0.0698</v>
       </c>
-      <c r="I26" s="34" t="n">
+      <c r="I26" s="35" t="n">
         <v>0.13498</v>
       </c>
-      <c r="J26" s="34" t="n">
+      <c r="J26" s="35" t="n">
         <v>0.0606901998</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="E27" s="53" t="n">
+        <v>498</v>
+      </c>
+      <c r="E27" s="54" t="n">
         <v>0.3</v>
       </c>
-      <c r="F27" s="34" t="n">
+      <c r="F27" s="35" t="n">
         <v>0.017</v>
       </c>
-      <c r="G27" s="34" t="n">
+      <c r="G27" s="35" t="n">
         <v>0.018</v>
       </c>
-      <c r="H27" s="34" t="n">
+      <c r="H27" s="35" t="n">
         <v>0.035</v>
       </c>
-      <c r="I27" s="34" t="n">
+      <c r="I27" s="35" t="n">
         <v>0.06</v>
       </c>
-      <c r="J27" s="34" t="n">
+      <c r="J27" s="35" t="n">
         <v>0.0332</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="E28" s="53" t="n">
+        <v>501</v>
+      </c>
+      <c r="E28" s="54" t="n">
         <v>0.347826086956522</v>
       </c>
-      <c r="F28" s="34" t="n">
+      <c r="F28" s="35" t="n">
         <v>0.017</v>
       </c>
-      <c r="G28" s="34" t="n">
+      <c r="G28" s="35" t="n">
         <v>0.064</v>
       </c>
-      <c r="H28" s="34" t="n">
+      <c r="H28" s="35" t="n">
         <v>0.081</v>
       </c>
-      <c r="I28" s="34" t="n">
+      <c r="I28" s="35" t="n">
         <v>0.184</v>
       </c>
-      <c r="J28" s="34" t="n">
+      <c r="J28" s="35" t="n">
         <v>0.08083072</v>
       </c>
     </row>
@@ -4571,48 +4589,51 @@
   </sheetPr>
   <dimension ref="A1:AY116"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C110" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A110" activeCellId="0" sqref="A110"/>
+      <selection pane="bottomRight" activeCell="D115" activeCellId="0" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.4898785425101"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="4" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="true" max="10" min="9" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="4" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="4" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="21" min="17" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="26" min="25" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="29" min="27" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="29" min="27" style="0" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="36" min="32" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="36" min="32" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="12.2105263157895"/>
     <col collapsed="false" hidden="false" max="41" min="38" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="43" min="42" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="48" min="45" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="48" min="45" style="0" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="50" min="49" style="4" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="51" min="51" style="4" width="9"/>
     <col collapsed="false" hidden="false" max="1025" min="52" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="P1" s="0"/>
       <c r="AE1" s="0"/>
       <c r="AS1" s="1" t="s">
         <v>22</v>
@@ -4774,6 +4795,9 @@
       <c r="AU3" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="AW3" s="0"/>
+      <c r="AX3" s="0"/>
+      <c r="AY3" s="0"/>
     </row>
     <row r="4" s="23" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
@@ -5654,19 +5678,185 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="AE10" s="0"/>
+      <c r="A10" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="O10" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="33" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="30" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="V10" s="30" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="30" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z10" s="30" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AA10" s="30" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AB10" s="30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AC10" s="30" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="AD10" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE10" s="5" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="AF10" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ10" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK10" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM10" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ10" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT10" s="32" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU10" s="32" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="AV10" s="32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AW10" s="33" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AX10" s="33" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AY10" s="33" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="P11" s="0"/>
       <c r="AE11" s="0"/>
+      <c r="AW11" s="0"/>
+      <c r="AX11" s="0"/>
+      <c r="AY11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="P12" s="0"/>
       <c r="AE12" s="0"/>
+      <c r="AW12" s="0"/>
+      <c r="AX12" s="0"/>
+      <c r="AY12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -5699,18 +5889,17 @@
     </row>
     <row r="14" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C14" s="29" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D14" s="29" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>131</v>
@@ -5860,18 +6049,17 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C15" s="29" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D15" s="29" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>131</v>
@@ -6021,18 +6209,17 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C16" s="29" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D16" s="29" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>131</v>
@@ -6182,18 +6369,17 @@
     </row>
     <row r="17" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C17" s="29" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D17" s="29" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>131</v>
@@ -6343,18 +6529,17 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>164</v>
-      </c>
       <c r="C18" s="29" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D18" s="29" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>131</v>
@@ -6503,19 +6688,18 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="33" t="s">
-        <v>169</v>
+      <c r="A19" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C19" s="29" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D19" s="29" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>147</v>
@@ -6664,19 +6848,18 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="33" t="s">
-        <v>171</v>
+      <c r="A20" s="34" t="s">
+        <v>175</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C20" s="29" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D20" s="29" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>147</v>
@@ -6825,19 +7008,18 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="33" t="s">
-        <v>172</v>
+      <c r="A21" s="34" t="s">
+        <v>176</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C21" s="29" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D21" s="29" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>155</v>
@@ -6986,19 +7168,18 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="33" t="s">
-        <v>173</v>
+      <c r="A22" s="34" t="s">
+        <v>177</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C22" s="29" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D22" s="29" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>155</v>
@@ -7147,19 +7328,18 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>170</v>
-      </c>
       <c r="C23" s="29" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D23" s="29" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>159</v>
@@ -7308,19 +7488,18 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="33" t="s">
-        <v>175</v>
+      <c r="A24" s="34" t="s">
+        <v>179</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C24" s="29" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D24" s="29" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>159</v>
@@ -7469,7 +7648,7 @@
       </c>
     </row>
     <row r="25" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="33"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="28"/>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
@@ -7501,19 +7680,18 @@
       <c r="AY25" s="29"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="33" t="s">
-        <v>176</v>
+      <c r="A26" s="34" t="s">
+        <v>180</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C26" s="29" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D26" s="29" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>147</v>
@@ -7662,19 +7840,18 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="33" t="s">
-        <v>178</v>
+      <c r="A27" s="34" t="s">
+        <v>182</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C27" s="29" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D27" s="29" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>155</v>
@@ -7855,7 +8032,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
@@ -7888,7 +8065,7 @@
     </row>
     <row r="30" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
@@ -7920,11 +8097,11 @@
       <c r="AY30" s="29"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="33" t="s">
-        <v>181</v>
+      <c r="A31" s="34" t="s">
+        <v>185</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C31" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -8016,7 +8193,7 @@
       <c r="AE31" s="5" t="n">
         <v>0.075157231635037</v>
       </c>
-      <c r="AF31" s="34" t="n">
+      <c r="AF31" s="35" t="n">
         <v>0.0177331122500804</v>
       </c>
       <c r="AG31" s="2" t="s">
@@ -8052,7 +8229,7 @@
       <c r="AQ31" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR31" s="35" t="n">
+      <c r="AR31" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS31" s="2" t="s">
@@ -8081,11 +8258,11 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="33" t="s">
-        <v>183</v>
+      <c r="A32" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C32" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -8177,7 +8354,7 @@
       <c r="AE32" s="5" t="n">
         <v>0.0758385930742359</v>
       </c>
-      <c r="AF32" s="34" t="n">
+      <c r="AF32" s="35" t="n">
         <v>0.0409534632048607</v>
       </c>
       <c r="AG32" s="2" t="s">
@@ -8213,7 +8390,7 @@
       <c r="AQ32" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR32" s="35" t="n">
+      <c r="AR32" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS32" s="2" t="s">
@@ -8242,11 +8419,11 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="33" t="s">
-        <v>185</v>
+      <c r="A33" s="34" t="s">
+        <v>189</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C33" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -8338,7 +8515,7 @@
       <c r="AE33" s="5" t="n">
         <v>0.0771476371054926</v>
       </c>
-      <c r="AF33" s="34" t="n">
+      <c r="AF33" s="35" t="n">
         <v>0.0655383415336796</v>
       </c>
       <c r="AG33" s="2" t="s">
@@ -8374,7 +8551,7 @@
       <c r="AQ33" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR33" s="35" t="n">
+      <c r="AR33" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS33" s="2" t="s">
@@ -8403,11 +8580,11 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="33" t="s">
-        <v>187</v>
+      <c r="A34" s="34" t="s">
+        <v>191</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C34" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -8535,7 +8712,7 @@
       <c r="AQ34" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR34" s="35" t="n">
+      <c r="AR34" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS34" s="2" t="s">
@@ -8564,11 +8741,11 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="33" t="s">
-        <v>189</v>
+      <c r="A35" s="34" t="s">
+        <v>193</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C35" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -8696,7 +8873,7 @@
       <c r="AQ35" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR35" s="35" t="n">
+      <c r="AR35" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS35" s="2" t="s">
@@ -8725,11 +8902,11 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="33" t="s">
-        <v>191</v>
+      <c r="A36" s="34" t="s">
+        <v>195</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C36" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -8857,7 +9034,7 @@
       <c r="AQ36" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR36" s="35" t="n">
+      <c r="AR36" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS36" s="2" t="s">
@@ -8886,11 +9063,11 @@
       </c>
     </row>
     <row r="37" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="33" t="s">
-        <v>193</v>
+      <c r="A37" s="34" t="s">
+        <v>197</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C37" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -9018,7 +9195,7 @@
       <c r="AQ37" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR37" s="35" t="n">
+      <c r="AR37" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS37" s="2" t="s">
@@ -9047,11 +9224,11 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="33" t="s">
-        <v>195</v>
+      <c r="A38" s="34" t="s">
+        <v>199</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C38" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -9179,7 +9356,7 @@
       <c r="AQ38" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR38" s="35" t="n">
+      <c r="AR38" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS38" s="2" t="s">
@@ -9208,11 +9385,11 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="33" t="s">
-        <v>197</v>
+      <c r="A39" s="34" t="s">
+        <v>201</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C39" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -9340,7 +9517,7 @@
       <c r="AQ39" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR39" s="35" t="n">
+      <c r="AR39" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS39" s="2" t="s">
@@ -9369,11 +9546,11 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="33" t="s">
-        <v>199</v>
+      <c r="A40" s="34" t="s">
+        <v>203</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C40" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -9501,7 +9678,7 @@
       <c r="AQ40" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR40" s="35" t="n">
+      <c r="AR40" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS40" s="2" t="s">
@@ -9530,15 +9707,14 @@
       </c>
     </row>
     <row r="41" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="33" t="s">
-        <v>201</v>
+      <c r="A41" s="34" t="s">
+        <v>205</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C41" s="29" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -9662,7 +9838,7 @@
       <c r="AQ41" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR41" s="35" t="n">
+      <c r="AR41" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS41" s="2" t="s">
@@ -9723,10 +9899,10 @@
     </row>
     <row r="43" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C43" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -9809,7 +9985,7 @@
       <c r="AB43" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC43" s="36" t="n">
+      <c r="AC43" s="37" t="n">
         <v>0.115</v>
       </c>
       <c r="AD43" s="30" t="s">
@@ -9854,7 +10030,7 @@
       <c r="AQ43" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR43" s="35" t="n">
+      <c r="AR43" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS43" s="2" t="s">
@@ -9884,10 +10060,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C44" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -9970,7 +10146,7 @@
       <c r="AB44" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC44" s="36" t="n">
+      <c r="AC44" s="37" t="n">
         <v>0.105</v>
       </c>
       <c r="AD44" s="30" t="s">
@@ -10015,7 +10191,7 @@
       <c r="AQ44" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR44" s="35" t="n">
+      <c r="AR44" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS44" s="2" t="s">
@@ -10045,10 +10221,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C45" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -10131,7 +10307,7 @@
       <c r="AB45" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC45" s="36" t="n">
+      <c r="AC45" s="37" t="n">
         <v>0.095</v>
       </c>
       <c r="AD45" s="30" t="s">
@@ -10176,7 +10352,7 @@
       <c r="AQ45" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR45" s="35" t="n">
+      <c r="AR45" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS45" s="2" t="s">
@@ -10206,10 +10382,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C46" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -10337,7 +10513,7 @@
       <c r="AQ46" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR46" s="35" t="n">
+      <c r="AR46" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS46" s="2" t="s">
@@ -10367,10 +10543,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C47" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -10498,7 +10674,7 @@
       <c r="AQ47" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR47" s="35" t="n">
+      <c r="AR47" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS47" s="2" t="s">
@@ -10528,10 +10704,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C48" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -10659,7 +10835,7 @@
       <c r="AQ48" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR48" s="35" t="n">
+      <c r="AR48" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS48" s="2" t="s">
@@ -10689,10 +10865,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C49" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -10820,7 +10996,7 @@
       <c r="AQ49" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR49" s="35" t="n">
+      <c r="AR49" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS49" s="2" t="s">
@@ -10850,10 +11026,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C50" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -10981,7 +11157,7 @@
       <c r="AQ50" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR50" s="35" t="n">
+      <c r="AR50" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS50" s="2" t="s">
@@ -11042,10 +11218,10 @@
     </row>
     <row r="52" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C52" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -11128,7 +11304,7 @@
       <c r="AB52" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC52" s="37" t="n">
+      <c r="AC52" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="AD52" s="30" t="s">
@@ -11173,7 +11349,7 @@
       <c r="AQ52" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR52" s="35" t="n">
+      <c r="AR52" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS52" s="2" t="s">
@@ -11203,10 +11379,10 @@
     </row>
     <row r="53" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C53" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -11289,7 +11465,7 @@
       <c r="AB53" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC53" s="37" t="n">
+      <c r="AC53" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="AD53" s="30" t="s">
@@ -11334,7 +11510,7 @@
       <c r="AQ53" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR53" s="35" t="n">
+      <c r="AR53" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS53" s="2" t="s">
@@ -11364,10 +11540,10 @@
     </row>
     <row r="54" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C54" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -11450,7 +11626,7 @@
       <c r="AB54" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC54" s="37" t="n">
+      <c r="AC54" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="AD54" s="30" t="s">
@@ -11495,7 +11671,7 @@
       <c r="AQ54" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR54" s="35" t="n">
+      <c r="AR54" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS54" s="2" t="s">
@@ -11525,10 +11701,10 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C55" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -11611,7 +11787,7 @@
       <c r="AB55" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC55" s="37" t="n">
+      <c r="AC55" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="AD55" s="30" t="s">
@@ -11656,7 +11832,7 @@
       <c r="AQ55" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR55" s="35" t="n">
+      <c r="AR55" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS55" s="2" t="s">
@@ -11686,10 +11862,10 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C56" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -11772,7 +11948,7 @@
       <c r="AB56" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC56" s="37" t="n">
+      <c r="AC56" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="AD56" s="30" t="s">
@@ -11817,7 +11993,7 @@
       <c r="AQ56" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR56" s="35" t="n">
+      <c r="AR56" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS56" s="2" t="s">
@@ -11847,10 +12023,10 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C57" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -11933,7 +12109,7 @@
       <c r="AB57" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC57" s="37" t="n">
+      <c r="AC57" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="AD57" s="30" t="s">
@@ -11978,7 +12154,7 @@
       <c r="AQ57" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR57" s="35" t="n">
+      <c r="AR57" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS57" s="2" t="s">
@@ -12008,10 +12184,10 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C58" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -12094,7 +12270,7 @@
       <c r="AB58" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC58" s="37" t="n">
+      <c r="AC58" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="AD58" s="30" t="s">
@@ -12139,7 +12315,7 @@
       <c r="AQ58" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR58" s="35" t="n">
+      <c r="AR58" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS58" s="2" t="s">
@@ -12169,10 +12345,10 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C59" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -12255,7 +12431,7 @@
       <c r="AB59" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC59" s="37" t="n">
+      <c r="AC59" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="AD59" s="30" t="s">
@@ -12300,7 +12476,7 @@
       <c r="AQ59" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR59" s="35" t="n">
+      <c r="AR59" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS59" s="2" t="s">
@@ -12343,7 +12519,7 @@
       <c r="Z60" s="30"/>
       <c r="AA60" s="30"/>
       <c r="AB60" s="30"/>
-      <c r="AC60" s="37"/>
+      <c r="AC60" s="38"/>
       <c r="AD60" s="30"/>
       <c r="AE60" s="5"/>
       <c r="AF60" s="30"/>
@@ -12352,7 +12528,7 @@
       <c r="AM60" s="0"/>
       <c r="AO60" s="0"/>
       <c r="AQ60" s="31"/>
-      <c r="AR60" s="35"/>
+      <c r="AR60" s="36"/>
       <c r="AT60" s="32"/>
       <c r="AU60" s="32"/>
       <c r="AV60" s="32"/>
@@ -12386,11 +12562,12 @@
       <c r="Z61" s="30"/>
       <c r="AA61" s="30"/>
       <c r="AB61" s="30"/>
-      <c r="AC61" s="37"/>
+      <c r="AC61" s="38"/>
       <c r="AD61" s="30"/>
+      <c r="AE61" s="0"/>
       <c r="AF61" s="30"/>
       <c r="AQ61" s="31"/>
-      <c r="AR61" s="35"/>
+      <c r="AR61" s="36"/>
       <c r="AT61" s="32"/>
       <c r="AU61" s="32"/>
       <c r="AV61" s="32"/>
@@ -12399,8 +12576,8 @@
       <c r="AY61" s="29"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="38" t="s">
-        <v>234</v>
+      <c r="B62" s="39" t="s">
+        <v>238</v>
       </c>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
@@ -12416,7 +12593,7 @@
       <c r="AB62" s="30"/>
       <c r="AC62" s="30"/>
       <c r="AD62" s="30"/>
-      <c r="AE62" s="39"/>
+      <c r="AE62" s="40"/>
       <c r="AF62" s="30"/>
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
@@ -12433,10 +12610,10 @@
     </row>
     <row r="63" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C63" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -12519,16 +12696,16 @@
       <c r="AB63" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC63" s="40" t="n">
+      <c r="AC63" s="41" t="n">
         <v>0.075</v>
       </c>
       <c r="AD63" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="AE63" s="40" t="n">
+      <c r="AE63" s="41" t="n">
         <v>0.075157231635037</v>
       </c>
-      <c r="AF63" s="39" t="n">
+      <c r="AF63" s="40" t="n">
         <v>0.0177331122500804</v>
       </c>
       <c r="AG63" s="2" t="s">
@@ -12564,7 +12741,7 @@
       <c r="AQ63" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR63" s="35" t="n">
+      <c r="AR63" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS63" s="2" t="s">
@@ -12594,10 +12771,10 @@
     </row>
     <row r="64" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C64" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -12680,16 +12857,16 @@
       <c r="AB64" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC64" s="40" t="n">
+      <c r="AC64" s="41" t="n">
         <v>0.065</v>
       </c>
       <c r="AD64" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="AE64" s="40" t="n">
+      <c r="AE64" s="41" t="n">
         <v>0.065157231635037</v>
       </c>
-      <c r="AF64" s="39" t="n">
+      <c r="AF64" s="40" t="n">
         <v>0.0177331122500804</v>
       </c>
       <c r="AG64" s="2" t="s">
@@ -12725,7 +12902,7 @@
       <c r="AQ64" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR64" s="35" t="n">
+      <c r="AR64" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS64" s="2" t="s">
@@ -12755,10 +12932,10 @@
     </row>
     <row r="65" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C65" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -12841,16 +13018,16 @@
       <c r="AB65" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC65" s="40" t="n">
+      <c r="AC65" s="41" t="n">
         <v>0.055</v>
       </c>
       <c r="AD65" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="AE65" s="40" t="n">
+      <c r="AE65" s="41" t="n">
         <v>0.055157231635037</v>
       </c>
-      <c r="AF65" s="39" t="n">
+      <c r="AF65" s="40" t="n">
         <v>0.0177331122500804</v>
       </c>
       <c r="AG65" s="2" t="s">
@@ -12886,7 +13063,7 @@
       <c r="AQ65" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR65" s="35" t="n">
+      <c r="AR65" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS65" s="2" t="s">
@@ -12916,10 +13093,10 @@
     </row>
     <row r="66" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C66" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -13002,16 +13179,16 @@
       <c r="AB66" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC66" s="40" t="n">
+      <c r="AC66" s="41" t="n">
         <v>0.045</v>
       </c>
       <c r="AD66" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="AE66" s="40" t="n">
+      <c r="AE66" s="41" t="n">
         <v>0.045157231635037</v>
       </c>
-      <c r="AF66" s="39" t="n">
+      <c r="AF66" s="40" t="n">
         <v>0.0177331122500804</v>
       </c>
       <c r="AG66" s="2" t="s">
@@ -13047,7 +13224,7 @@
       <c r="AQ66" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR66" s="35" t="n">
+      <c r="AR66" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS66" s="2" t="s">
@@ -13077,10 +13254,10 @@
     </row>
     <row r="67" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C67" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -13163,16 +13340,16 @@
       <c r="AB67" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC67" s="40" t="n">
+      <c r="AC67" s="41" t="n">
         <v>0.04</v>
       </c>
       <c r="AD67" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="AE67" s="40" t="n">
+      <c r="AE67" s="41" t="n">
         <v>0.0402</v>
       </c>
-      <c r="AF67" s="39" t="n">
+      <c r="AF67" s="40" t="n">
         <v>0.0177331122500804</v>
       </c>
       <c r="AG67" s="2" t="s">
@@ -13208,7 +13385,7 @@
       <c r="AQ67" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR67" s="35" t="n">
+      <c r="AR67" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS67" s="2" t="s">
@@ -13238,10 +13415,10 @@
     </row>
     <row r="68" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C68" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -13324,16 +13501,16 @@
       <c r="AB68" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC68" s="40" t="n">
+      <c r="AC68" s="41" t="n">
         <v>0.035</v>
       </c>
       <c r="AD68" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="AE68" s="40" t="n">
+      <c r="AE68" s="41" t="n">
         <v>0.035157231635037</v>
       </c>
-      <c r="AF68" s="39" t="n">
+      <c r="AF68" s="40" t="n">
         <v>0.0177331122500804</v>
       </c>
       <c r="AG68" s="2" t="s">
@@ -13369,7 +13546,7 @@
       <c r="AQ68" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR68" s="35" t="n">
+      <c r="AR68" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS68" s="2" t="s">
@@ -13399,10 +13576,10 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C69" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -13485,16 +13662,16 @@
       <c r="AB69" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC69" s="40" t="n">
+      <c r="AC69" s="41" t="n">
         <v>0.03</v>
       </c>
       <c r="AD69" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="AE69" s="40" t="n">
+      <c r="AE69" s="41" t="n">
         <v>0.030157231635037</v>
       </c>
-      <c r="AF69" s="39" t="n">
+      <c r="AF69" s="40" t="n">
         <v>0.0177331122500804</v>
       </c>
       <c r="AG69" s="2" t="s">
@@ -13530,7 +13707,7 @@
       <c r="AQ69" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR69" s="35" t="n">
+      <c r="AR69" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS69" s="2" t="s">
@@ -13560,10 +13737,10 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C70" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -13646,16 +13823,16 @@
       <c r="AB70" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC70" s="40" t="n">
+      <c r="AC70" s="41" t="n">
         <v>0.025</v>
       </c>
       <c r="AD70" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="AE70" s="40" t="n">
+      <c r="AE70" s="41" t="n">
         <v>0.025157231635037</v>
       </c>
-      <c r="AF70" s="39" t="n">
+      <c r="AF70" s="40" t="n">
         <v>0.0177331122500804</v>
       </c>
       <c r="AG70" s="2" t="s">
@@ -13691,7 +13868,7 @@
       <c r="AQ70" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR70" s="35" t="n">
+      <c r="AR70" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS70" s="2" t="s">
@@ -13733,16 +13910,16 @@
       <c r="Z71" s="30"/>
       <c r="AA71" s="30"/>
       <c r="AB71" s="30"/>
-      <c r="AC71" s="40"/>
+      <c r="AC71" s="41"/>
       <c r="AD71" s="30"/>
-      <c r="AE71" s="40"/>
-      <c r="AF71" s="39"/>
+      <c r="AE71" s="41"/>
+      <c r="AF71" s="40"/>
       <c r="AH71" s="2"/>
       <c r="AI71" s="2"/>
       <c r="AN71" s="2"/>
       <c r="AP71" s="2"/>
       <c r="AQ71" s="31"/>
-      <c r="AR71" s="35"/>
+      <c r="AR71" s="36"/>
       <c r="AS71" s="2"/>
       <c r="AT71" s="32"/>
       <c r="AU71" s="32"/>
@@ -13753,10 +13930,10 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C72" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -13839,16 +14016,16 @@
       <c r="AB72" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC72" s="40" t="n">
+      <c r="AC72" s="41" t="n">
         <v>0.035</v>
       </c>
       <c r="AD72" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="AE72" s="40" t="n">
+      <c r="AE72" s="41" t="n">
         <v>0.035157231635037</v>
       </c>
-      <c r="AF72" s="39" t="n">
+      <c r="AF72" s="40" t="n">
         <v>0.0177331122500804</v>
       </c>
       <c r="AG72" s="2" t="s">
@@ -13884,7 +14061,7 @@
       <c r="AQ72" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR72" s="35" t="n">
+      <c r="AR72" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS72" s="2" t="s">
@@ -13926,16 +14103,16 @@
       <c r="Z73" s="30"/>
       <c r="AA73" s="30"/>
       <c r="AB73" s="30"/>
-      <c r="AC73" s="40"/>
+      <c r="AC73" s="41"/>
       <c r="AD73" s="30"/>
-      <c r="AE73" s="40"/>
-      <c r="AF73" s="39"/>
+      <c r="AE73" s="41"/>
+      <c r="AF73" s="40"/>
       <c r="AH73" s="2"/>
       <c r="AI73" s="2"/>
       <c r="AN73" s="2"/>
       <c r="AP73" s="2"/>
       <c r="AQ73" s="31"/>
-      <c r="AR73" s="35"/>
+      <c r="AR73" s="36"/>
       <c r="AS73" s="2"/>
       <c r="AT73" s="32"/>
       <c r="AU73" s="32"/>
@@ -13945,8 +14122,8 @@
       <c r="AY73" s="29"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="38" t="s">
-        <v>253</v>
+      <c r="B74" s="39" t="s">
+        <v>257</v>
       </c>
       <c r="C74" s="29"/>
       <c r="D74" s="29"/>
@@ -13960,7 +14137,7 @@
       <c r="Z74" s="30"/>
       <c r="AA74" s="30"/>
       <c r="AB74" s="30"/>
-      <c r="AC74" s="37"/>
+      <c r="AC74" s="38"/>
       <c r="AD74" s="30"/>
       <c r="AE74" s="0"/>
       <c r="AF74" s="30"/>
@@ -13969,7 +14146,7 @@
       <c r="AN74" s="2"/>
       <c r="AP74" s="2"/>
       <c r="AQ74" s="31"/>
-      <c r="AR74" s="35"/>
+      <c r="AR74" s="36"/>
       <c r="AS74" s="2"/>
       <c r="AT74" s="32"/>
       <c r="AU74" s="32"/>
@@ -13980,10 +14157,10 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C75" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -14066,16 +14243,16 @@
       <c r="AB75" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC75" s="40" t="n">
+      <c r="AC75" s="41" t="n">
         <v>0.075</v>
       </c>
       <c r="AD75" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="AE75" s="40" t="n">
+      <c r="AE75" s="41" t="n">
         <v>0.075157231635037</v>
       </c>
-      <c r="AF75" s="39" t="n">
+      <c r="AF75" s="40" t="n">
         <v>0.0177331122500804</v>
       </c>
       <c r="AG75" s="2" t="s">
@@ -14111,7 +14288,7 @@
       <c r="AQ75" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR75" s="35" t="n">
+      <c r="AR75" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS75" s="2" t="s">
@@ -14141,10 +14318,10 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C76" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -14227,16 +14404,16 @@
       <c r="AB76" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC76" s="40" t="n">
+      <c r="AC76" s="41" t="n">
         <v>0.075</v>
       </c>
       <c r="AD76" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="AE76" s="40" t="n">
+      <c r="AE76" s="41" t="n">
         <v>0.065157231635037</v>
       </c>
-      <c r="AF76" s="39" t="n">
+      <c r="AF76" s="40" t="n">
         <v>0.0177331122500804</v>
       </c>
       <c r="AG76" s="2" t="s">
@@ -14272,7 +14449,7 @@
       <c r="AQ76" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR76" s="35" t="n">
+      <c r="AR76" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS76" s="2" t="s">
@@ -14302,10 +14479,10 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C77" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -14388,16 +14565,16 @@
       <c r="AB77" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC77" s="40" t="n">
+      <c r="AC77" s="41" t="n">
         <v>0.075</v>
       </c>
       <c r="AD77" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="AE77" s="40" t="n">
+      <c r="AE77" s="41" t="n">
         <v>0.055157231635037</v>
       </c>
-      <c r="AF77" s="39" t="n">
+      <c r="AF77" s="40" t="n">
         <v>0.0177331122500804</v>
       </c>
       <c r="AG77" s="2" t="s">
@@ -14433,7 +14610,7 @@
       <c r="AQ77" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR77" s="35" t="n">
+      <c r="AR77" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS77" s="2" t="s">
@@ -14463,10 +14640,10 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C78" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -14549,16 +14726,16 @@
       <c r="AB78" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC78" s="40" t="n">
+      <c r="AC78" s="41" t="n">
         <v>0.075</v>
       </c>
       <c r="AD78" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="AE78" s="40" t="n">
+      <c r="AE78" s="41" t="n">
         <v>0.045157231635037</v>
       </c>
-      <c r="AF78" s="39" t="n">
+      <c r="AF78" s="40" t="n">
         <v>0.0177331122500804</v>
       </c>
       <c r="AG78" s="2" t="s">
@@ -14594,7 +14771,7 @@
       <c r="AQ78" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR78" s="35" t="n">
+      <c r="AR78" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS78" s="2" t="s">
@@ -14624,10 +14801,10 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C79" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -14710,16 +14887,16 @@
       <c r="AB79" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC79" s="40" t="n">
+      <c r="AC79" s="41" t="n">
         <v>0.075</v>
       </c>
       <c r="AD79" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="AE79" s="40" t="n">
+      <c r="AE79" s="41" t="n">
         <v>0.0402</v>
       </c>
-      <c r="AF79" s="39" t="n">
+      <c r="AF79" s="40" t="n">
         <v>0.0177331122500804</v>
       </c>
       <c r="AG79" s="2" t="s">
@@ -14755,7 +14932,7 @@
       <c r="AQ79" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR79" s="35" t="n">
+      <c r="AR79" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS79" s="2" t="s">
@@ -14785,10 +14962,10 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C80" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -14871,16 +15048,16 @@
       <c r="AB80" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC80" s="40" t="n">
+      <c r="AC80" s="41" t="n">
         <v>0.075</v>
       </c>
       <c r="AD80" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="AE80" s="40" t="n">
+      <c r="AE80" s="41" t="n">
         <v>0.035157231635037</v>
       </c>
-      <c r="AF80" s="39" t="n">
+      <c r="AF80" s="40" t="n">
         <v>0.0177331122500804</v>
       </c>
       <c r="AG80" s="2" t="s">
@@ -14916,7 +15093,7 @@
       <c r="AQ80" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR80" s="35" t="n">
+      <c r="AR80" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS80" s="2" t="s">
@@ -14946,10 +15123,10 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C81" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -15032,16 +15209,16 @@
       <c r="AB81" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC81" s="40" t="n">
+      <c r="AC81" s="41" t="n">
         <v>0.075</v>
       </c>
       <c r="AD81" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="AE81" s="40" t="n">
+      <c r="AE81" s="41" t="n">
         <v>0.030157231635037</v>
       </c>
-      <c r="AF81" s="39" t="n">
+      <c r="AF81" s="40" t="n">
         <v>0.0177331122500804</v>
       </c>
       <c r="AG81" s="2" t="s">
@@ -15077,7 +15254,7 @@
       <c r="AQ81" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR81" s="35" t="n">
+      <c r="AR81" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS81" s="2" t="s">
@@ -15107,10 +15284,10 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C82" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -15193,16 +15370,16 @@
       <c r="AB82" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC82" s="40" t="n">
+      <c r="AC82" s="41" t="n">
         <v>0.075</v>
       </c>
       <c r="AD82" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="AE82" s="40" t="n">
+      <c r="AE82" s="41" t="n">
         <v>0.025157231635037</v>
       </c>
-      <c r="AF82" s="39" t="n">
+      <c r="AF82" s="40" t="n">
         <v>0.0177331122500804</v>
       </c>
       <c r="AG82" s="2" t="s">
@@ -15238,7 +15415,7 @@
       <c r="AQ82" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR82" s="35" t="n">
+      <c r="AR82" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS82" s="2" t="s">
@@ -15280,16 +15457,16 @@
       <c r="Z83" s="30"/>
       <c r="AA83" s="30"/>
       <c r="AB83" s="30"/>
-      <c r="AC83" s="40"/>
+      <c r="AC83" s="41"/>
       <c r="AD83" s="30"/>
-      <c r="AE83" s="40"/>
-      <c r="AF83" s="39"/>
+      <c r="AE83" s="41"/>
+      <c r="AF83" s="40"/>
       <c r="AH83" s="2"/>
       <c r="AI83" s="2"/>
       <c r="AN83" s="2"/>
       <c r="AP83" s="2"/>
       <c r="AQ83" s="31"/>
-      <c r="AR83" s="35"/>
+      <c r="AR83" s="36"/>
       <c r="AS83" s="2"/>
       <c r="AT83" s="32"/>
       <c r="AU83" s="32"/>
@@ -15299,8 +15476,8 @@
       <c r="AY83" s="29"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="38" t="s">
-        <v>270</v>
+      <c r="B84" s="39" t="s">
+        <v>274</v>
       </c>
       <c r="C84" s="29"/>
       <c r="D84" s="29"/>
@@ -15314,7 +15491,7 @@
       <c r="Z84" s="30"/>
       <c r="AA84" s="30"/>
       <c r="AB84" s="30"/>
-      <c r="AC84" s="37"/>
+      <c r="AC84" s="38"/>
       <c r="AD84" s="30"/>
       <c r="AE84" s="0"/>
       <c r="AF84" s="30"/>
@@ -15323,7 +15500,7 @@
       <c r="AN84" s="2"/>
       <c r="AP84" s="2"/>
       <c r="AQ84" s="31"/>
-      <c r="AR84" s="35"/>
+      <c r="AR84" s="36"/>
       <c r="AS84" s="2"/>
       <c r="AT84" s="32"/>
       <c r="AU84" s="32"/>
@@ -15334,10 +15511,10 @@
     </row>
     <row r="85" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C85" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -15420,7 +15597,7 @@
       <c r="AB85" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC85" s="37" t="n">
+      <c r="AC85" s="38" t="n">
         <v>0.044234404536862</v>
       </c>
       <c r="AD85" s="30" t="s">
@@ -15465,7 +15642,7 @@
       <c r="AQ85" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR85" s="35" t="n">
+      <c r="AR85" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS85" s="2" t="s">
@@ -15495,10 +15672,10 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C86" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -15581,7 +15758,7 @@
       <c r="AB86" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC86" s="37" t="n">
+      <c r="AC86" s="38" t="n">
         <v>0.0574267485822306</v>
       </c>
       <c r="AD86" s="30" t="s">
@@ -15626,7 +15803,7 @@
       <c r="AQ86" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR86" s="35" t="n">
+      <c r="AR86" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS86" s="2" t="s">
@@ -15656,10 +15833,10 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C87" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -15742,7 +15919,7 @@
       <c r="AB87" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC87" s="37" t="n">
+      <c r="AC87" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="AD87" s="30" t="s">
@@ -15787,7 +15964,7 @@
       <c r="AQ87" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR87" s="35" t="n">
+      <c r="AR87" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS87" s="2" t="s">
@@ -15817,10 +15994,10 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C88" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -15903,7 +16080,7 @@
       <c r="AB88" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC88" s="37" t="n">
+      <c r="AC88" s="38" t="n">
         <v>0.0806214555765595</v>
       </c>
       <c r="AD88" s="30" t="s">
@@ -15948,7 +16125,7 @@
       <c r="AQ88" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR88" s="35" t="n">
+      <c r="AR88" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS88" s="2" t="s">
@@ -15978,10 +16155,10 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C89" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -16064,7 +16241,7 @@
       <c r="AB89" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC89" s="37" t="n">
+      <c r="AC89" s="38" t="n">
         <v>0.0906238185255199</v>
       </c>
       <c r="AD89" s="30" t="s">
@@ -16109,7 +16286,7 @@
       <c r="AQ89" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR89" s="35" t="n">
+      <c r="AR89" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS89" s="2" t="s">
@@ -16152,7 +16329,7 @@
       <c r="Z90" s="30"/>
       <c r="AA90" s="30"/>
       <c r="AB90" s="30"/>
-      <c r="AC90" s="37"/>
+      <c r="AC90" s="38"/>
       <c r="AD90" s="30"/>
       <c r="AE90" s="5"/>
       <c r="AF90" s="5"/>
@@ -16161,7 +16338,7 @@
       <c r="AM90" s="0"/>
       <c r="AO90" s="0"/>
       <c r="AQ90" s="31"/>
-      <c r="AR90" s="35"/>
+      <c r="AR90" s="36"/>
       <c r="AT90" s="32"/>
       <c r="AU90" s="32"/>
       <c r="AV90" s="32"/>
@@ -16171,8 +16348,8 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2"/>
-      <c r="B91" s="38" t="s">
-        <v>280</v>
+      <c r="B91" s="39" t="s">
+        <v>284</v>
       </c>
       <c r="C91" s="29"/>
       <c r="D91" s="29"/>
@@ -16184,11 +16361,12 @@
       <c r="Z91" s="30"/>
       <c r="AA91" s="30"/>
       <c r="AB91" s="30"/>
-      <c r="AC91" s="37"/>
+      <c r="AC91" s="38"/>
       <c r="AD91" s="30"/>
+      <c r="AE91" s="0"/>
       <c r="AF91" s="5"/>
       <c r="AQ91" s="31"/>
-      <c r="AR91" s="35"/>
+      <c r="AR91" s="36"/>
       <c r="AT91" s="32"/>
       <c r="AU91" s="32"/>
       <c r="AV91" s="32"/>
@@ -16198,10 +16376,10 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C92" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -16284,7 +16462,7 @@
       <c r="AB92" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC92" s="37" t="n">
+      <c r="AC92" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="AD92" s="30" t="s">
@@ -16329,7 +16507,7 @@
       <c r="AQ92" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR92" s="35" t="n">
+      <c r="AR92" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS92" s="2" t="s">
@@ -16359,10 +16537,10 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C93" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -16445,7 +16623,7 @@
       <c r="AB93" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC93" s="37" t="n">
+      <c r="AC93" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="AD93" s="30" t="s">
@@ -16490,7 +16668,7 @@
       <c r="AQ93" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR93" s="35" t="n">
+      <c r="AR93" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS93" s="2" t="s">
@@ -16520,10 +16698,10 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B94" s="28" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C94" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -16606,7 +16784,7 @@
       <c r="AB94" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC94" s="37" t="n">
+      <c r="AC94" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="AD94" s="30" t="s">
@@ -16651,7 +16829,7 @@
       <c r="AQ94" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR94" s="35" t="n">
+      <c r="AR94" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS94" s="2" t="s">
@@ -16681,10 +16859,10 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C95" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -16767,7 +16945,7 @@
       <c r="AB95" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC95" s="37" t="n">
+      <c r="AC95" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="AD95" s="30" t="s">
@@ -16812,7 +16990,7 @@
       <c r="AQ95" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR95" s="35" t="n">
+      <c r="AR95" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS95" s="2" t="s">
@@ -16842,10 +17020,10 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C96" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -16928,7 +17106,7 @@
       <c r="AB96" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC96" s="37" t="n">
+      <c r="AC96" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="AD96" s="30" t="s">
@@ -16973,7 +17151,7 @@
       <c r="AQ96" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR96" s="35" t="n">
+      <c r="AR96" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS96" s="2" t="s">
@@ -17016,7 +17194,7 @@
       <c r="Z97" s="30"/>
       <c r="AA97" s="30"/>
       <c r="AB97" s="30"/>
-      <c r="AC97" s="37"/>
+      <c r="AC97" s="38"/>
       <c r="AD97" s="30"/>
       <c r="AE97" s="5"/>
       <c r="AF97" s="5"/>
@@ -17025,7 +17203,7 @@
       <c r="AM97" s="0"/>
       <c r="AO97" s="0"/>
       <c r="AQ97" s="31"/>
-      <c r="AR97" s="35"/>
+      <c r="AR97" s="36"/>
       <c r="AT97" s="32"/>
       <c r="AU97" s="32"/>
       <c r="AV97" s="32"/>
@@ -17035,7 +17213,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C98" s="29"/>
       <c r="D98" s="29"/>
@@ -17067,11 +17245,11 @@
       <c r="AY98" s="29"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="33" t="s">
-        <v>291</v>
+      <c r="A99" s="34" t="s">
+        <v>295</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C99" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -17228,11 +17406,11 @@
       </c>
     </row>
     <row r="100" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="33" t="s">
-        <v>293</v>
+      <c r="A100" s="34" t="s">
+        <v>297</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C100" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -17389,11 +17567,11 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="33" t="s">
-        <v>295</v>
+      <c r="A101" s="34" t="s">
+        <v>299</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C101" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -17550,11 +17728,11 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="33" t="s">
-        <v>297</v>
+      <c r="A102" s="34" t="s">
+        <v>301</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C102" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -17711,11 +17889,11 @@
       </c>
     </row>
     <row r="103" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="33" t="s">
-        <v>299</v>
+      <c r="A103" s="34" t="s">
+        <v>303</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C103" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -17843,7 +18021,7 @@
       <c r="AQ103" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR103" s="35" t="n">
+      <c r="AR103" s="36" t="n">
         <v>140108493</v>
       </c>
       <c r="AS103" s="2" t="s">
@@ -17872,21 +18050,33 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="0"/>
+      <c r="D104" s="0"/>
+      <c r="P104" s="0"/>
       <c r="AE104" s="0"/>
+      <c r="AW104" s="0"/>
+      <c r="AX104" s="0"/>
+      <c r="AY104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="AC105" s="41"/>
+        <v>305</v>
+      </c>
+      <c r="C105" s="0"/>
+      <c r="D105" s="0"/>
+      <c r="P105" s="0"/>
+      <c r="AC105" s="42"/>
       <c r="AE105" s="0"/>
+      <c r="AW105" s="0"/>
+      <c r="AX105" s="0"/>
+      <c r="AY105" s="0"/>
     </row>
     <row r="106" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C106" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -17969,7 +18159,7 @@
       <c r="AB106" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC106" s="37" t="n">
+      <c r="AC106" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="AD106" s="30" t="s">
@@ -18015,7 +18205,7 @@
       <c r="AQ106" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR106" s="35" t="n">
+      <c r="AR106" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS106" s="2" t="s">
@@ -18045,10 +18235,10 @@
     </row>
     <row r="107" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C107" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -18131,7 +18321,7 @@
       <c r="AB107" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC107" s="37" t="n">
+      <c r="AC107" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="AD107" s="30" t="s">
@@ -18177,7 +18367,7 @@
       <c r="AQ107" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR107" s="35" t="n">
+      <c r="AR107" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS107" s="2" t="s">
@@ -18207,10 +18397,10 @@
     </row>
     <row r="108" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C108" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -18293,7 +18483,7 @@
       <c r="AB108" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC108" s="37" t="n">
+      <c r="AC108" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="AD108" s="30" t="s">
@@ -18339,7 +18529,7 @@
       <c r="AQ108" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR108" s="35" t="n">
+      <c r="AR108" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS108" s="2" t="s">
@@ -18369,10 +18559,10 @@
     </row>
     <row r="109" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C109" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -18455,7 +18645,7 @@
       <c r="AB109" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC109" s="37" t="n">
+      <c r="AC109" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="AD109" s="30" t="s">
@@ -18501,7 +18691,7 @@
       <c r="AQ109" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR109" s="35" t="n">
+      <c r="AR109" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS109" s="2" t="s">
@@ -18531,10 +18721,10 @@
     </row>
     <row r="110" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C110" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -18617,7 +18807,7 @@
       <c r="AB110" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC110" s="37" t="n">
+      <c r="AC110" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="AD110" s="30" t="s">
@@ -18663,7 +18853,7 @@
       <c r="AQ110" s="31" t="n">
         <v>0.75</v>
       </c>
-      <c r="AR110" s="35" t="n">
+      <c r="AR110" s="36" t="n">
         <v>168732127</v>
       </c>
       <c r="AS110" s="2" t="s">
@@ -18692,14 +18882,20 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="0"/>
+      <c r="D111" s="0"/>
+      <c r="P111" s="0"/>
       <c r="AE111" s="0"/>
+      <c r="AW111" s="0"/>
+      <c r="AX111" s="0"/>
+      <c r="AY111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C112" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -18857,18 +19053,17 @@
     </row>
     <row r="113" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C113" s="29" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D113" s="29" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>131</v>
@@ -19018,18 +19213,17 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C114" s="29" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D114" s="29" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>131</v>
@@ -19178,14 +19372,20 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C115" s="0"/>
+      <c r="D115" s="0"/>
+      <c r="P115" s="0"/>
       <c r="AE115" s="0"/>
+      <c r="AW115" s="0"/>
+      <c r="AX115" s="0"/>
+      <c r="AY115" s="0"/>
     </row>
     <row r="116" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C116" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -19355,7 +19555,7 @@
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="AS4:AV4"/>
   </mergeCells>
-  <dataValidations count="21">
+  <dataValidations count="42">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AN6:AN9 AN13:AN103 AN106:AN110 AN112:AN114 AN116" type="list">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
@@ -19372,7 +19572,7 @@
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6:D10 P6:P9 C13:D103 P13:P103 C106:D110 P106:P110 C112:D114 P112:P114 C116:D116 P116" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6:D9 P6:P9 C13:D103 P13:P103 C106:D110 P106:P110 C112:D114 P112:P114 C116:D116 P116" type="list">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -19440,6 +19640,90 @@
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C10:D10 P10" type="list">
+      <formula1>"TRUE,FALSE"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I10:J10" type="list">
+      <formula1>#ref!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" prompt="Integer 55 to 65, please" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="S10" type="whole">
+      <formula1>35</formula1>
+      <formula2>80</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" prompt="Decimal, 0-10% please" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V10 AB10" type="decimal">
+      <formula1>0</formula1>
+      <formula2>0.1</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" prompt="Integer, 0-15" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="W10:X10" type="whole">
+      <formula1>0</formula1>
+      <formula2>15</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" prompt="Decimal, 0-20% please" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Y10:AA10 AC10 AE10" type="decimal">
+      <formula1>0</formula1>
+      <formula2>0.2</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" prompt="Decimal, 0-20% please" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AD10" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" prompt="Decimal, 0-75% please" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AF10" type="decimal">
+      <formula1>0</formula1>
+      <formula2>0.75</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AH10" type="list">
+      <formula1>"open,closed"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AI10" type="list">
+      <formula1>"cd,cp,sl"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" prompt="Integer, 0 to 30, please" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AJ10" type="whole">
+      <formula1>0</formula1>
+      <formula2>30</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" prompt="Integer, 1 to 30" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AL10" type="whole">
+      <formula1>1</formula1>
+      <formula2>30</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AM10" type="decimal">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AN10" type="list">
+      <formula1>"MA,EAA"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AO10" type="decimal">
+      <formula1>1</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AP10" type="list">
+      <formula1>"MA,AL,AL_pct"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AQ10" type="decimal">
+      <formula1>0</formula1>
+      <formula2>1.5</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AS10" type="list">
+      <formula1>ConPolicy</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" prompt="Decimal, 0-75%" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AT10:AU10" type="decimal">
+      <formula1>0</formula1>
+      <formula2>0.75</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" prompt="Decimal, 0-30%" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AV10" type="decimal">
+      <formula1>0</formula1>
+      <formula2>0.3</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AW10:AY10" type="list">
+      <formula1>"TRUE,FALSE"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -19459,12 +19743,12 @@
   <dimension ref="A3:D6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -19479,12 +19763,12 @@
         <v>109</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.075</v>
@@ -19496,9 +19780,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0.025</v>
@@ -19510,9 +19794,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0.075</v>
@@ -19556,13 +19840,13 @@
         <v>78</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -19583,7 +19867,7 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -19594,30 +19878,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19667,15 +19951,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.03643724696356"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="86.9797570850202"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="87.7287449392713"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B1" s="3"/>
     </row>
@@ -19685,19 +19969,19 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="42" t="s">
-        <v>329</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="6" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="43" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="44" t="s">
         <v>110</v>
       </c>
     </row>
@@ -19706,27 +19990,27 @@
         <v>139</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="43" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="44" t="s">
         <v>122</v>
       </c>
     </row>
@@ -19735,27 +20019,27 @@
         <v>145</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="16" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="43" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="44" t="s">
         <v>114</v>
       </c>
     </row>
@@ -19764,7 +20048,7 @@
         <v>142</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19772,11 +20056,11 @@
         <v>153</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="20" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="43" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="44" t="s">
         <v>88</v>
       </c>
     </row>
@@ -19800,18 +20084,18 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="43" t="s">
+    <row r="26" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="44" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="43" t="s">
+    <row r="27" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="44" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="43" t="s">
+    <row r="28" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="44" t="s">
         <v>86</v>
       </c>
     </row>
@@ -19860,39 +20144,39 @@
         <v>133</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="44" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="43" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="44" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="44" t="s">
         <v>83</v>
       </c>
     </row>
@@ -19918,59 +20202,59 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="56" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="43" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="56" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="44" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19978,8 +20262,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="43" t="s">
+    <row r="63" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="44" t="s">
         <v>90</v>
       </c>
     </row>
@@ -19990,44 +20274,44 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="73" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="73" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="44" t="s">
         <v>91</v>
       </c>
     </row>
@@ -20036,28 +20320,28 @@
         <v>137</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -20087,33 +20371,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="111.939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="112.902834008097"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="59.3441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20125,466 +20409,466 @@
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
       <c r="B8" s="0" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="D8" s="37" t="n">
+        <v>384</v>
+      </c>
+      <c r="D8" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
-      <c r="B9" s="33" t="s">
-        <v>382</v>
+      <c r="B9" s="34" t="s">
+        <v>386</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="D9" s="37" t="n">
+        <v>387</v>
+      </c>
+      <c r="D9" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0"/>
-      <c r="B10" s="33" t="s">
-        <v>384</v>
+      <c r="B10" s="34" t="s">
+        <v>388</v>
       </c>
       <c r="C10" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="D10" s="38" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>385</v>
-      </c>
-      <c r="D10" s="37" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0"/>
-      <c r="B11" s="33" t="s">
-        <v>386</v>
+      <c r="B11" s="34" t="s">
+        <v>390</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>387</v>
-      </c>
-      <c r="D11" s="37" t="n">
+        <v>391</v>
+      </c>
+      <c r="D11" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44"/>
-      <c r="B12" s="33" t="s">
-        <v>388</v>
+      <c r="A12" s="45"/>
+      <c r="B12" s="34" t="s">
+        <v>392</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>389</v>
-      </c>
-      <c r="D12" s="37" t="n">
+        <v>393</v>
+      </c>
+      <c r="D12" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44"/>
-      <c r="B13" s="33" t="s">
-        <v>390</v>
+      <c r="A13" s="45"/>
+      <c r="B13" s="34" t="s">
+        <v>394</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>391</v>
-      </c>
-      <c r="D13" s="37" t="n">
+        <v>395</v>
+      </c>
+      <c r="D13" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45" t="s">
-        <v>392</v>
+      <c r="A14" s="45"/>
+      <c r="B14" s="46" t="s">
+        <v>396</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>393</v>
-      </c>
-      <c r="D14" s="37"/>
+        <v>397</v>
+      </c>
+      <c r="D14" s="38"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="44"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="0" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="D15" s="37" t="n">
+        <v>399</v>
+      </c>
+      <c r="D15" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="44"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="0" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>397</v>
-      </c>
-      <c r="D16" s="37" t="n">
+        <v>401</v>
+      </c>
+      <c r="D16" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="44"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="0" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>399</v>
-      </c>
-      <c r="D17" s="37" t="n">
+        <v>403</v>
+      </c>
+      <c r="D17" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="44"/>
-      <c r="B18" s="33" t="s">
-        <v>400</v>
+      <c r="A18" s="45"/>
+      <c r="B18" s="34" t="s">
+        <v>404</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="D18" s="37" t="n">
+        <v>405</v>
+      </c>
+      <c r="D18" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="44"/>
+      <c r="A19" s="45"/>
       <c r="C19" s="28"/>
-      <c r="D19" s="37" t="n">
+      <c r="D19" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="44"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="0" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>403</v>
-      </c>
-      <c r="D20" s="37" t="n">
+        <v>407</v>
+      </c>
+      <c r="D20" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="44"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="D21" s="37" t="n">
+        <v>409</v>
+      </c>
+      <c r="D21" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45" t="s">
-        <v>406</v>
+      <c r="A22" s="45"/>
+      <c r="B22" s="46" t="s">
+        <v>410</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="D22" s="37" t="n">
+        <v>411</v>
+      </c>
+      <c r="D22" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="44"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="0" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>409</v>
-      </c>
-      <c r="D23" s="37" t="n">
+        <v>413</v>
+      </c>
+      <c r="D23" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="44"/>
-      <c r="B24" s="33" t="s">
-        <v>410</v>
+      <c r="A24" s="45"/>
+      <c r="B24" s="34" t="s">
+        <v>414</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="D24" s="37" t="n">
+        <v>415</v>
+      </c>
+      <c r="D24" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="44"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="0" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="D25" s="37"/>
+        <v>417</v>
+      </c>
+      <c r="D25" s="38"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="44"/>
-      <c r="D26" s="37"/>
+      <c r="A26" s="45"/>
+      <c r="D26" s="38"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="44"/>
-      <c r="B27" s="45" t="s">
-        <v>414</v>
+      <c r="A27" s="45"/>
+      <c r="B27" s="46" t="s">
+        <v>418</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="D27" s="37" t="n">
+        <v>419</v>
+      </c>
+      <c r="D27" s="38" t="n">
         <v>0.064</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="44"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="0" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="D28" s="37" t="n">
+        <v>421</v>
+      </c>
+      <c r="D28" s="38" t="n">
         <v>0.064</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0"/>
-      <c r="B29" s="46" t="s">
-        <v>420</v>
+      <c r="B29" s="47" t="s">
+        <v>424</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="D29" s="37" t="n">
+        <v>425</v>
+      </c>
+      <c r="D29" s="38" t="n">
         <v>0.059</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="F29" s="47" t="s">
-        <v>422</v>
+        <v>385</v>
+      </c>
+      <c r="F29" s="48" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
       <c r="B30" s="0" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="D30" s="37" t="n">
+        <v>428</v>
+      </c>
+      <c r="D30" s="38" t="n">
         <v>0.059</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="F30" s="47" t="s">
-        <v>426</v>
+        <v>429</v>
+      </c>
+      <c r="F30" s="48" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0"/>
       <c r="C31" s="28"/>
-      <c r="D31" s="37"/>
+      <c r="D31" s="38"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D32" s="37" t="n">
+        <v>431</v>
+      </c>
+      <c r="D32" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
       <c r="B33" s="0" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>429</v>
-      </c>
-      <c r="D33" s="37" t="n">
+        <v>433</v>
+      </c>
+      <c r="D33" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
-      <c r="B34" s="33" t="s">
-        <v>430</v>
+      <c r="B34" s="34" t="s">
+        <v>434</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="D34" s="37" t="n">
+        <v>435</v>
+      </c>
+      <c r="D34" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
-      <c r="B35" s="33" t="s">
-        <v>432</v>
+      <c r="B35" s="34" t="s">
+        <v>436</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="D35" s="37" t="n">
+        <v>437</v>
+      </c>
+      <c r="D35" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0"/>
-      <c r="B36" s="33" t="s">
-        <v>434</v>
+      <c r="B36" s="34" t="s">
+        <v>438</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="D36" s="37" t="n">
+        <v>439</v>
+      </c>
+      <c r="D36" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
       <c r="B37" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>437</v>
-      </c>
-      <c r="D37" s="37" t="n">
+        <v>441</v>
+      </c>
+      <c r="D37" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D38" s="37" t="n">
+        <v>442</v>
+      </c>
+      <c r="D38" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0"/>
-      <c r="B39" s="33" t="s">
-        <v>439</v>
+      <c r="B39" s="34" t="s">
+        <v>443</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>440</v>
-      </c>
-      <c r="D39" s="37" t="n">
+        <v>444</v>
+      </c>
+      <c r="D39" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="K39" s="30"/>
-      <c r="L39" s="48"/>
+      <c r="L39" s="49"/>
       <c r="M39" s="30"/>
       <c r="Q39" s="30"/>
       <c r="T39" s="30"/>
@@ -20602,28 +20886,28 @@
       <c r="AM39" s="32"/>
       <c r="AN39" s="32"/>
       <c r="AO39" s="32"/>
-      <c r="AP39" s="48"/>
-      <c r="AQ39" s="48"/>
-      <c r="AR39" s="48"/>
+      <c r="AP39" s="49"/>
+      <c r="AQ39" s="49"/>
+      <c r="AR39" s="49"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="44" t="s">
-        <v>441</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>442</v>
+      <c r="A40" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>446</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="D40" s="37" t="n">
+        <v>447</v>
+      </c>
+      <c r="D40" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="K40" s="30"/>
-      <c r="L40" s="48"/>
+      <c r="L40" s="49"/>
       <c r="M40" s="30"/>
       <c r="Q40" s="30"/>
       <c r="T40" s="30"/>
@@ -20641,9 +20925,9 @@
       <c r="AM40" s="32"/>
       <c r="AN40" s="32"/>
       <c r="AO40" s="32"/>
-      <c r="AP40" s="48"/>
-      <c r="AQ40" s="48"/>
-      <c r="AR40" s="48"/>
+      <c r="AP40" s="49"/>
+      <c r="AQ40" s="49"/>
+      <c r="AR40" s="49"/>
     </row>
   </sheetData>
   <dataValidations count="20">
@@ -20751,32 +21035,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.8097165991903"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="73.5910931174089"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.2388663967611"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="74.2348178137652"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.2793522267206"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -20785,10 +21069,10 @@
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>3</v>
@@ -20796,309 +21080,309 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>446</v>
+        <v>168</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>447</v>
+        <v>168</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>448</v>
+        <v>168</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>450</v>
+        <v>453</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>454</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>451</v>
+        <v>174</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>453</v>
+        <v>456</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>457</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>454</v>
+        <v>174</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>456</v>
+        <v>459</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>460</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>457</v>
+        <v>174</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>459</v>
+        <v>462</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>463</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>460</v>
+        <v>174</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>462</v>
+        <v>465</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>466</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>463</v>
+        <v>174</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>464</v>
+        <v>465</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>468</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>465</v>
+        <v>174</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="33"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="28"/>
-      <c r="D17" s="37"/>
+      <c r="D17" s="38"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="33"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="28"/>
-      <c r="D18" s="37"/>
+      <c r="D18" s="38"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="28"/>
-      <c r="D19" s="37"/>
+      <c r="D19" s="38"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
-      <c r="B21" s="33" t="s">
-        <v>181</v>
+      <c r="B21" s="34" t="s">
+        <v>185</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>466</v>
-      </c>
-      <c r="D21" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="D21" s="38" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
-      <c r="B22" s="33" t="s">
-        <v>183</v>
+      <c r="B22" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="D22" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="D22" s="38" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
-      <c r="B23" s="33" t="s">
-        <v>185</v>
+      <c r="B23" s="34" t="s">
+        <v>189</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>468</v>
-      </c>
-      <c r="D23" s="37" t="s">
+        <v>472</v>
+      </c>
+      <c r="D23" s="38" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="33" t="s">
-        <v>187</v>
+      <c r="B24" s="34" t="s">
+        <v>191</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>469</v>
-      </c>
-      <c r="D24" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="D24" s="38" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="33" t="s">
-        <v>189</v>
+      <c r="B25" s="34" t="s">
+        <v>193</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>470</v>
-      </c>
-      <c r="D25" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="D25" s="38" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="28"/>
-      <c r="D26" s="37"/>
+      <c r="D26" s="38"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>472</v>
-      </c>
-      <c r="D27" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="D27" s="38" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="D28" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="D28" s="38" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="D29" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D29" s="38" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>474</v>
-      </c>
-      <c r="D30" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="D30" s="38" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>475</v>
-      </c>
-      <c r="D31" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="D31" s="38" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="28"/>
-      <c r="D32" s="37"/>
+      <c r="D32" s="38"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D33" s="37"/>
+        <v>294</v>
+      </c>
+      <c r="D33" s="38"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="33" t="s">
-        <v>293</v>
+      <c r="B34" s="34" t="s">
+        <v>297</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="D34" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="D34" s="38" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="33" t="s">
-        <v>295</v>
+      <c r="B35" s="34" t="s">
+        <v>299</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>477</v>
-      </c>
-      <c r="D35" s="37" t="s">
+        <v>481</v>
+      </c>
+      <c r="D35" s="38" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>

--- a/IO_M2.1_new/RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/RunControl_M2.1_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="514">
   <si>
     <t xml:space="preserve">Sheet #</t>
   </si>
@@ -525,13 +525,19 @@
     <t xml:space="preserve">VSERS</t>
   </si>
   <si>
-    <t xml:space="preserve">VSERS.fillin.yos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSERS.fillin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSERS.yos</t>
+    <t xml:space="preserve">VT-VSERS.fillin.yos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VT-VSERS.fillin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VT-VSERS.yos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vtvsersterm.average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vtvsersret</t>
   </si>
   <si>
     <t xml:space="preserve">Demographics</t>
@@ -1761,13 +1767,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -2354,9 +2360,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>608760</xdr:colOff>
+      <xdr:colOff>608040</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2365,8 +2371,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8070840" y="3313440"/>
-          <a:ext cx="2491200" cy="1533600"/>
+          <a:off x="6513840" y="3313440"/>
+          <a:ext cx="2022120" cy="1532880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2397,11 +2403,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>𝑟</a:t>
@@ -2411,11 +2412,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>_𝑔=𝑟_(𝑎 )− </a:t>
@@ -2425,11 +2421,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>〖𝑠𝑑〗</a:t>
@@ -2439,24 +2430,11 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>^2  </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2471,11 +2449,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>(𝑟_(𝑎 )−𝑟_(𝑓  ))/𝑠𝑑</a:t>
@@ -2485,24 +2458,11 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t> = S</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2512,15 +2472,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2535,11 +2487,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Solve for sd and </a:t>
@@ -2549,11 +2496,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>𝑟_(𝑎 )</a:t>
@@ -2563,24 +2505,11 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>:</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2590,15 +2519,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2613,11 +2534,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>sd = </a:t>
@@ -2627,24 +2543,11 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>(2𝑆 − √(4𝑠^2  −8(𝑟_𝑔  − 𝑟_𝑓))  )/2</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2659,11 +2562,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>𝑟</a:t>
@@ -2673,11 +2571,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>_(𝑎 )</a:t>
@@ -2687,11 +2580,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>= </a:t>
@@ -2701,11 +2589,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>𝑟_(𝑔 )+  </a:t>
@@ -2715,11 +2598,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>〖𝑠𝑑〗</a:t>
@@ -2729,24 +2607,11 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>^2⁄2</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2756,15 +2621,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2782,7 +2639,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -2790,11 +2647,11 @@
       <selection pane="bottomRight" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2837,7 +2694,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2852,42 +2709,42 @@
   </sheetPr>
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="14.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="I1" s="1"/>
       <c r="N1" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="0"/>
@@ -2896,23 +2753,23 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B2" s="50" t="n">
         <v>0.46</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="I2" s="0"/>
       <c r="J2" s="50" t="n">
         <v>0.46</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="O2" s="50" t="n">
         <v>0.46</v>
@@ -2923,7 +2780,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B3" s="51" t="n">
         <v>0.027</v>
@@ -2951,46 +2808,46 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="I5" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="P5" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="N5" s="0" t="s">
+      <c r="R5" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3517,7 +3374,7 @@
       <c r="N26" s="57"/>
       <c r="O26" s="59"/>
       <c r="P26" s="59" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="Q26" s="57"/>
       <c r="R26" s="58"/>
@@ -3570,19 +3427,19 @@
       <c r="B30" s="0"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="I30" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>491</v>
-      </c>
       <c r="L30" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="P30" s="0"/>
     </row>
@@ -3610,7 +3467,7 @@
         <v>0.075</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P31" s="0"/>
     </row>
@@ -3638,7 +3495,7 @@
         <v>0.075</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P32" s="0"/>
     </row>
@@ -3673,7 +3530,7 @@
         <v>0.0606901998</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="P34" s="0"/>
     </row>
@@ -3700,14 +3557,14 @@
         <v>0.0332</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="P35" s="0"/>
       <c r="R35" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="T35" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3733,7 +3590,7 @@
         <v>0.08083072</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="P36" s="0"/>
       <c r="R36" s="0" t="n">
@@ -3787,7 +3644,7 @@
         <v>0.0606901998</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="R38" s="0" t="n">
         <v>0.081</v>
@@ -3822,7 +3679,7 @@
         <v>0.0332</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3847,13 +3704,13 @@
         <v>0.08083072</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3869,20 +3726,20 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="35" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="35" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="35" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="35" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="35" width="9.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="35" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="35" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="35" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3944,25 +3801,25 @@
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
       <c r="D5" s="64" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F5" s="66" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G5" s="66" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H5" s="66" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="I5" s="66" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="J5" s="66" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="K5" s="60"/>
       <c r="L5" s="60"/>
@@ -3974,7 +3831,7 @@
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
       <c r="D6" s="67" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E6" s="68" t="n">
         <v>0.459999999999999</v>
@@ -4004,7 +3861,7 @@
       <c r="B7" s="60"/>
       <c r="C7" s="60"/>
       <c r="D7" s="70" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E7" s="71" t="n">
         <v>0.46</v>
@@ -4034,7 +3891,7 @@
       <c r="B8" s="60"/>
       <c r="C8" s="60"/>
       <c r="D8" s="67" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E8" s="68" t="n">
         <v>0.46</v>
@@ -4083,7 +3940,7 @@
       <c r="B10" s="60"/>
       <c r="C10" s="60"/>
       <c r="D10" s="67" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E10" s="73" t="n">
         <v>0.36506976744186</v>
@@ -4113,7 +3970,7 @@
       <c r="B11" s="60"/>
       <c r="C11" s="60"/>
       <c r="D11" s="67" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E11" s="73" t="n">
         <v>0.317084012446288</v>
@@ -4143,7 +4000,7 @@
       <c r="B12" s="60"/>
       <c r="C12" s="60"/>
       <c r="D12" s="67" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E12" s="73" t="n">
         <v>0.133333333333333</v>
@@ -4173,7 +4030,7 @@
       <c r="B13" s="60"/>
       <c r="C13" s="60"/>
       <c r="D13" s="74" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E13" s="75" t="n">
         <v>0.293478260869565</v>
@@ -4203,7 +4060,7 @@
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="77" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E14" s="77"/>
       <c r="F14" s="77"/>
@@ -4381,7 +4238,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E25" s="54" t="n">
         <v>0.423209302325581</v>
@@ -4404,7 +4261,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="0" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E26" s="54" t="n">
         <v>0.391169062083272</v>
@@ -4427,7 +4284,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E27" s="54" t="n">
         <v>0.3</v>
@@ -4450,7 +4307,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E28" s="54" t="n">
         <v>0.347826086956522</v>
@@ -4477,7 +4334,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4492,13 +4349,13 @@
   </sheetPr>
   <dimension ref="A6:A25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H46" activeCellId="0" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4574,7 +4431,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4589,45 +4446,45 @@
   </sheetPr>
   <dimension ref="A1:AY116"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C110" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A110" activeCellId="0" sqref="A110"/>
-      <selection pane="bottomRight" activeCell="D115" activeCellId="0" sqref="D115"/>
+      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="N11" activeCellId="0" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.4898785425101"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="4" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="true" max="10" min="9" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="4" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="21" min="17" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="29" min="27" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="36" min="32" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="41" min="38" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="43" min="42" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="48" min="45" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="50" min="49" style="4" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="4" width="9"/>
-    <col collapsed="false" hidden="false" max="1025" min="52" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="4" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.36"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="10" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="25.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="22.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="17" style="0" width="9.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="13.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="0" width="10.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="27" style="0" width="13.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="5" width="13.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="32" style="0" width="13.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="12.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="38" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="42" style="0" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="45" style="0" width="13.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="49" style="4" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="4" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="52" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5715,17 +5572,16 @@
         <v>135</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="O10" s="30" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="33" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="30" t="n">
         <v>0.022</v>
@@ -5856,7 +5712,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -5889,10 +5745,10 @@
     </row>
     <row r="14" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C14" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -6049,10 +5905,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C15" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -6209,10 +6065,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>170</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>168</v>
       </c>
       <c r="C16" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -6369,10 +6225,10 @@
     </row>
     <row r="17" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C17" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -6529,10 +6385,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C18" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -6689,10 +6545,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="34" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C19" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -6849,10 +6705,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="34" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C20" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -7009,10 +6865,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>176</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>174</v>
       </c>
       <c r="C21" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -7169,10 +7025,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="34" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C22" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -7329,10 +7185,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="34" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C23" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -7489,10 +7345,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="34" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C24" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -7681,10 +7537,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="34" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C26" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -7841,10 +7697,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="34" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C27" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -8032,7 +7888,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
@@ -8065,7 +7921,7 @@
     </row>
     <row r="30" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
@@ -8098,10 +7954,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="34" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C31" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -8259,10 +8115,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="34" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C32" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -8420,10 +8276,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C33" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -8581,10 +8437,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="34" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C34" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -8742,10 +8598,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="34" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C35" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -8903,10 +8759,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="34" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C36" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -9064,10 +8920,10 @@
     </row>
     <row r="37" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="34" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C37" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -9225,10 +9081,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="34" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C38" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -9386,10 +9242,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="34" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C39" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -9547,10 +9403,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="34" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C40" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -9708,10 +9564,10 @@
     </row>
     <row r="41" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="34" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C41" s="29" t="n">
         <v>0</v>
@@ -9899,10 +9755,10 @@
     </row>
     <row r="43" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C43" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -10060,10 +9916,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C44" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -10221,10 +10077,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C45" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -10382,10 +10238,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C46" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -10543,10 +10399,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C47" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -10704,10 +10560,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C48" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -10865,10 +10721,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C49" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -11026,10 +10882,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C50" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -11218,10 +11074,10 @@
     </row>
     <row r="52" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C52" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -11379,10 +11235,10 @@
     </row>
     <row r="53" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C53" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -11540,10 +11396,10 @@
     </row>
     <row r="54" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C54" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -11701,10 +11557,10 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C55" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -11862,10 +11718,10 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C56" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -12023,10 +11879,10 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C57" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -12184,10 +12040,10 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C58" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -12345,10 +12201,10 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C59" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -12577,7 +12433,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="39" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
@@ -12610,10 +12466,10 @@
     </row>
     <row r="63" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C63" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -12771,10 +12627,10 @@
     </row>
     <row r="64" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C64" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -12932,10 +12788,10 @@
     </row>
     <row r="65" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C65" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -13093,10 +12949,10 @@
     </row>
     <row r="66" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C66" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -13254,10 +13110,10 @@
     </row>
     <row r="67" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C67" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -13415,10 +13271,10 @@
     </row>
     <row r="68" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C68" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -13576,10 +13432,10 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C69" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -13737,10 +13593,10 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C70" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -13930,10 +13786,10 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C72" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -14123,7 +13979,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="39" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C74" s="29"/>
       <c r="D74" s="29"/>
@@ -14157,10 +14013,10 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C75" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -14318,10 +14174,10 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C76" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -14479,10 +14335,10 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C77" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -14640,10 +14496,10 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C78" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -14801,10 +14657,10 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C79" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -14962,10 +14818,10 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C80" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -15123,10 +14979,10 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C81" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -15284,10 +15140,10 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C82" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -15477,7 +15333,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="39" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C84" s="29"/>
       <c r="D84" s="29"/>
@@ -15511,10 +15367,10 @@
     </row>
     <row r="85" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C85" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -15672,10 +15528,10 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C86" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -15833,10 +15689,10 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C87" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -15994,10 +15850,10 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C88" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -16155,10 +16011,10 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C89" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -16349,7 +16205,7 @@
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2"/>
       <c r="B91" s="39" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C91" s="29"/>
       <c r="D91" s="29"/>
@@ -16376,10 +16232,10 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C92" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -16537,10 +16393,10 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C93" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -16698,10 +16554,10 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B94" s="28" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C94" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -16859,10 +16715,10 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C95" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -17020,10 +16876,10 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C96" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -17213,7 +17069,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C98" s="29"/>
       <c r="D98" s="29"/>
@@ -17246,10 +17102,10 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="34" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C99" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -17407,10 +17263,10 @@
     </row>
     <row r="100" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="34" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C100" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -17568,10 +17424,10 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="34" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C101" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -17729,10 +17585,10 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="34" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C102" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -17890,10 +17746,10 @@
     </row>
     <row r="103" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="34" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C103" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -18060,7 +17916,7 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="28" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C105" s="0"/>
       <c r="D105" s="0"/>
@@ -18073,10 +17929,10 @@
     </row>
     <row r="106" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C106" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -18235,10 +18091,10 @@
     </row>
     <row r="107" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C107" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -18397,10 +18253,10 @@
     </row>
     <row r="108" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C108" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -18559,10 +18415,10 @@
     </row>
     <row r="109" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C109" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -18721,10 +18577,10 @@
     </row>
     <row r="110" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C110" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -18892,10 +18748,10 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C112" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -19053,10 +18909,10 @@
     </row>
     <row r="113" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C113" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -19213,10 +19069,10 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C114" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -19382,10 +19238,10 @@
     </row>
     <row r="116" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C116" s="29" t="n">
         <f aca="false">FALSE()</f>
@@ -19727,7 +19583,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -19742,14 +19598,14 @@
   </sheetPr>
   <dimension ref="A3:D6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19763,7 +19619,7 @@
         <v>109</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19811,7 +19667,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -19826,13 +19682,13 @@
   </sheetPr>
   <dimension ref="A2:D2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19840,19 +19696,19 @@
         <v>78</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -19867,41 +19723,41 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19930,7 +19786,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -19945,21 +19801,21 @@
   </sheetPr>
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C72" activeCellId="0" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.03643724696356"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="87.7287449392713"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="88.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B1" s="3"/>
     </row>
@@ -19969,15 +19825,15 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="43" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19990,23 +19846,23 @@
         <v>139</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20019,23 +19875,23 @@
         <v>145</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20048,7 +19904,7 @@
         <v>142</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20056,7 +19912,7 @@
         <v>153</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20144,35 +20000,35 @@
         <v>133</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20202,22 +20058,22 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="56" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20227,34 +20083,34 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20274,40 +20130,40 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20320,28 +20176,28 @@
         <v>137</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -20350,7 +20206,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -20365,39 +20221,39 @@
   </sheetPr>
   <dimension ref="A1:AR40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="112.902834008097"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="59.3441295546559"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="113.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="59.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20409,178 +20265,178 @@
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
       <c r="B8" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D8" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
       <c r="B9" s="34" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D9" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0"/>
       <c r="B10" s="34" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D10" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0"/>
       <c r="B11" s="34" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D11" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="45"/>
       <c r="B12" s="34" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D12" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="45"/>
       <c r="B13" s="34" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D13" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="45"/>
       <c r="B14" s="46" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D14" s="38"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="45"/>
       <c r="B15" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D15" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="45"/>
       <c r="B16" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D16" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="45"/>
       <c r="B17" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D17" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="45"/>
       <c r="B18" s="34" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D18" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20590,91 +20446,91 @@
         <v>0.075</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="45"/>
       <c r="B20" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D20" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="45"/>
       <c r="B21" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D21" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="45"/>
       <c r="B22" s="46" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D22" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="45"/>
       <c r="B23" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D23" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="45"/>
       <c r="B24" s="34" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D24" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="45"/>
       <c r="B25" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D25" s="38"/>
     </row>
@@ -20685,70 +20541,70 @@
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="45"/>
       <c r="B27" s="46" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D27" s="38" t="n">
         <v>0.064</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="45"/>
       <c r="B28" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D28" s="38" t="n">
         <v>0.064</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0"/>
       <c r="B29" s="47" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D29" s="38" t="n">
         <v>0.059</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F29" s="48" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
       <c r="B30" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D30" s="38" t="n">
         <v>0.059</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20758,114 +20614,114 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D32" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
       <c r="B33" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D33" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
       <c r="B34" s="34" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D34" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
       <c r="B35" s="34" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D35" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0"/>
       <c r="B36" s="34" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D36" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
       <c r="B37" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D37" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D38" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0"/>
       <c r="B39" s="34" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D39" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K39" s="30"/>
       <c r="L39" s="49"/>
@@ -20892,19 +20748,19 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="45" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D40" s="38" t="n">
         <v>0.075</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K40" s="30"/>
       <c r="L40" s="49"/>
@@ -21014,7 +20870,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -21029,38 +20885,38 @@
   </sheetPr>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.8137651821862"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.2388663967611"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="74.2348178137652"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="74.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="37.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -21069,10 +20925,10 @@
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>3</v>
@@ -21080,133 +20936,133 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>168</v>
-      </c>
       <c r="D10" s="38" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21225,16 +21081,16 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
       <c r="B21" s="34" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D21" s="38" t="s">
         <v>133</v>
@@ -21243,10 +21099,10 @@
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="34" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>133</v>
@@ -21255,10 +21111,10 @@
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>133</v>
@@ -21266,10 +21122,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="34" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>133</v>
@@ -21277,10 +21133,10 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="34" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D25" s="38" t="s">
         <v>133</v>
@@ -21292,13 +21148,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D27" s="38" t="s">
         <v>133</v>
@@ -21306,10 +21162,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D28" s="38" t="s">
         <v>133</v>
@@ -21317,10 +21173,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D29" s="38" t="s">
         <v>133</v>
@@ -21328,10 +21184,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D30" s="38" t="s">
         <v>133</v>
@@ -21339,10 +21195,10 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>133</v>
@@ -21354,16 +21210,16 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D33" s="38"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="34" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D34" s="38" t="s">
         <v>133</v>
@@ -21371,10 +21227,10 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="34" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D35" s="38" t="s">
         <v>133</v>
@@ -21382,13 +21238,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
